--- a/animalBiome_Automation/src/test/resources/data/samples.xlsx
+++ b/animalBiome_Automation/src/test/resources/data/samples.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13860" windowHeight="5030" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14150" windowHeight="3400" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="SAMPLE_ID" sheetId="1" r:id="rId1"/>
     <sheet name="PET_NAME" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:D11"/>
+  <oleSize ref="A1:D10"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="267">
   <si>
     <t>User_Dog_Gut</t>
   </si>
@@ -771,9 +771,6 @@
     <t>KEF67M</t>
   </si>
   <si>
-    <t>scout1</t>
-  </si>
-  <si>
     <t>fury1</t>
   </si>
   <si>
@@ -783,7 +780,43 @@
     <t>Thunder2</t>
   </si>
   <si>
-    <t>Ryder2</t>
+    <t>Rabbit1</t>
+  </si>
+  <si>
+    <t>Cattle1</t>
+  </si>
+  <si>
+    <t>Sheep1</t>
+  </si>
+  <si>
+    <t>Primate2</t>
+  </si>
+  <si>
+    <t>Rabbit2</t>
+  </si>
+  <si>
+    <t>Cattle2</t>
+  </si>
+  <si>
+    <t>Bird3</t>
+  </si>
+  <si>
+    <t>Sheep2</t>
+  </si>
+  <si>
+    <t>Primate3</t>
+  </si>
+  <si>
+    <t>Rabbit3</t>
+  </si>
+  <si>
+    <t>Cattle3</t>
+  </si>
+  <si>
+    <t>Bird4</t>
+  </si>
+  <si>
+    <t>Sheep3</t>
   </si>
 </sst>
 </file>
@@ -837,7 +870,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -856,6 +889,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
@@ -1164,7 +1204,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -1484,7 +1524,7 @@
       <c r="D17" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" s="20" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1501,7 +1541,7 @@
       <c r="D18" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" s="21" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1518,7 +1558,7 @@
       <c r="D19" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" s="22" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1535,7 +1575,7 @@
       <c r="D20" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" s="23" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1552,7 +1592,7 @@
       <c r="D21" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" s="24" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1569,7 +1609,7 @@
       <c r="D22" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E22" s="25" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1586,7 +1626,7 @@
       <c r="D23" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E23" s="26" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2034,10 +2074,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2085,6 +2125,9 @@
       <c r="C2" t="s" s="0">
         <v>30</v>
       </c>
+      <c r="D2" t="s" s="0">
+        <v>30</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s" s="0">
@@ -2093,26 +2136,64 @@
       <c r="C3" t="s" s="0">
         <v>30</v>
       </c>
+      <c r="D3" t="s" s="0">
+        <v>30</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C4" t="s" s="0">
-        <v>252</v>
+        <v>251</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>259</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C5" t="s" s="0">
-        <v>253</v>
+        <v>252</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>254</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C6" t="s" s="0">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35"/>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35"/>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35"/>
+        <v>253</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D7" t="s" s="0">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D8" t="s" s="0">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D9" t="s" s="0">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D10" t="s" s="0">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="D11" t="s" s="0">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="D12" t="s" s="0">
+        <v>266</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/animalBiome_Automation/src/test/resources/data/samples.xlsx
+++ b/animalBiome_Automation/src/test/resources/data/samples.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14150" windowHeight="3400" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14570" windowHeight="2760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="SAMPLE_ID" sheetId="1" r:id="rId1"/>
     <sheet name="PET_NAME" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:D10"/>
+  <oleSize ref="A10:D16"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="299">
   <si>
     <t>User_Dog_Gut</t>
   </si>
@@ -81,9 +81,6 @@
     <t>FGTHPA</t>
   </si>
   <si>
-    <t>GPHXPA</t>
-  </si>
-  <si>
     <t>M4CF4T</t>
   </si>
   <si>
@@ -789,27 +786,12 @@
     <t>Sheep1</t>
   </si>
   <si>
-    <t>Primate2</t>
-  </si>
-  <si>
-    <t>Rabbit2</t>
-  </si>
-  <si>
-    <t>Cattle2</t>
-  </si>
-  <si>
     <t>Bird3</t>
   </si>
   <si>
     <t>Sheep2</t>
   </si>
   <si>
-    <t>Primate3</t>
-  </si>
-  <si>
-    <t>Rabbit3</t>
-  </si>
-  <si>
     <t>Cattle3</t>
   </si>
   <si>
@@ -817,6 +799,120 @@
   </si>
   <si>
     <t>Sheep3</t>
+  </si>
+  <si>
+    <t>CKXFNF</t>
+  </si>
+  <si>
+    <t>EYERRG</t>
+  </si>
+  <si>
+    <t>F4XVUC</t>
+  </si>
+  <si>
+    <t>A6DECD</t>
+  </si>
+  <si>
+    <t>GFURHK</t>
+  </si>
+  <si>
+    <t>FGVJRH</t>
+  </si>
+  <si>
+    <t>URPPPY</t>
+  </si>
+  <si>
+    <t>67K3FX</t>
+  </si>
+  <si>
+    <t>GVHJEH</t>
+  </si>
+  <si>
+    <t>7A4DAX</t>
+  </si>
+  <si>
+    <t>4ENGMN</t>
+  </si>
+  <si>
+    <t>K3YKFX</t>
+  </si>
+  <si>
+    <t>YDRJYD</t>
+  </si>
+  <si>
+    <t>TDEDCT</t>
+  </si>
+  <si>
+    <t>KFMEXM</t>
+  </si>
+  <si>
+    <t>GN4XV9</t>
+  </si>
+  <si>
+    <t>ANHYXJ</t>
+  </si>
+  <si>
+    <t>DFN4MC</t>
+  </si>
+  <si>
+    <t>GMEUKV</t>
+  </si>
+  <si>
+    <t>REVUMK</t>
+  </si>
+  <si>
+    <t>MRMPHE</t>
+  </si>
+  <si>
+    <t>UFVUFY</t>
+  </si>
+  <si>
+    <t>4JRPUA</t>
+  </si>
+  <si>
+    <t>7VRCVX</t>
+  </si>
+  <si>
+    <t>CUXVMJ</t>
+  </si>
+  <si>
+    <t>GFGGJT</t>
+  </si>
+  <si>
+    <t>KVEDY9</t>
+  </si>
+  <si>
+    <t>VNF3UP</t>
+  </si>
+  <si>
+    <t>HRKETE</t>
+  </si>
+  <si>
+    <t>3DKJUC</t>
+  </si>
+  <si>
+    <t>Taffy1</t>
+  </si>
+  <si>
+    <t>Taffy2</t>
+  </si>
+  <si>
+    <t>Charlie4</t>
+  </si>
+  <si>
+    <t>Leo3</t>
+  </si>
+  <si>
+    <t>Snowy2</t>
+  </si>
+  <si>
+    <t>Milo3</t>
+  </si>
+  <si>
+    <t>Charlie5</t>
+  </si>
+  <si>
+    <t>Taffy3</t>
   </si>
 </sst>
 </file>
@@ -870,7 +966,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -894,6 +990,22 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
@@ -1205,7 +1317,7 @@
   <dimension ref="A1:J58"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1260,153 +1372,153 @@
       <c r="A2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>101</v>
+      <c r="B2" s="31" t="s">
+        <v>100</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>102</v>
+      <c r="B3" s="32" t="s">
+        <v>101</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E5" s="8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="1" t="s">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E6" s="9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="1" t="s">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="E6" s="9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="1" t="s">
+      <c r="E7" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="41" t="s">
         <v>106</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E8" s="11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="1" t="s">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E9" s="12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B9" s="1" t="s">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E10" s="13" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
@@ -1414,16 +1526,16 @@
         <v>53</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
@@ -1431,16 +1543,16 @@
         <v>54</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
@@ -1448,16 +1560,16 @@
         <v>55</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
@@ -1465,16 +1577,16 @@
         <v>56</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
@@ -1482,16 +1594,16 @@
         <v>57</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
@@ -1499,16 +1611,16 @@
         <v>58</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
@@ -1516,16 +1628,16 @@
         <v>59</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E17" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
@@ -1533,16 +1645,16 @@
         <v>60</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
@@ -1550,16 +1662,16 @@
         <v>61</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E19" s="22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
@@ -1567,16 +1679,16 @@
         <v>62</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E20" s="23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
@@ -1584,16 +1696,16 @@
         <v>63</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E21" s="24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
@@ -1601,16 +1713,16 @@
         <v>64</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E22" s="25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
@@ -1618,16 +1730,16 @@
         <v>65</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E23" s="26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
@@ -1635,16 +1747,16 @@
         <v>66</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>48</v>
+        <v>222</v>
+      </c>
+      <c r="E24" s="27" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
@@ -1652,16 +1764,16 @@
         <v>67</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>49</v>
+        <v>223</v>
+      </c>
+      <c r="E25" s="28" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
@@ -1669,16 +1781,16 @@
         <v>68</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>50</v>
+        <v>224</v>
+      </c>
+      <c r="E26" s="29" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
@@ -1686,13 +1798,16 @@
         <v>69</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
@@ -1700,13 +1815,16 @@
         <v>70</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
@@ -1714,13 +1832,16 @@
         <v>71</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
@@ -1728,13 +1849,16 @@
         <v>72</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
@@ -1742,13 +1866,16 @@
         <v>73</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
@@ -1756,316 +1883,387 @@
         <v>74</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+        <v>230</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+        <v>231</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+        <v>232</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+        <v>233</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+        <v>234</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+        <v>235</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+        <v>236</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>81</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+        <v>237</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+        <v>238</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+        <v>239</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>84</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+        <v>240</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+        <v>241</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+        <v>242</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+        <v>243</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+        <v>244</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+        <v>245</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+        <v>246</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+        <v>247</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+        <v>248</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+        <v>249</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E52" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E53" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E54" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E55" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E56" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A58" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2076,8 +2274,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2120,78 +2318,102 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s" s="0">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s" s="0">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" t="s" s="0">
+        <v>29</v>
+      </c>
       <c r="C4" t="s" s="0">
+        <v>250</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" t="s" s="0">
+        <v>296</v>
+      </c>
+      <c r="C5" t="s" s="0">
         <v>251</v>
       </c>
-      <c r="D4" t="s" s="0">
+      <c r="D5" t="s" s="0">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>252</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D11" t="s" s="0">
         <v>259</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="C5" t="s" s="0">
-        <v>252</v>
-      </c>
-      <c r="D5" t="s" s="0">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="C6" t="s" s="0">
-        <v>253</v>
-      </c>
-      <c r="D6" t="s" s="0">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="D7" t="s" s="0">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="D8" t="s" s="0">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D12" t="s" s="0">
         <v>260</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="D9" t="s" s="0">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="D10" t="s" s="0">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="D11" t="s" s="0">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="D12" t="s" s="0">
-        <v>266</v>
       </c>
     </row>
   </sheetData>

--- a/animalBiome_Automation/src/test/resources/data/samples.xlsx
+++ b/animalBiome_Automation/src/test/resources/data/samples.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14570" windowHeight="2760" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14570" windowHeight="2870"/>
   </bookViews>
   <sheets>
     <sheet name="SAMPLE_ID" sheetId="1" r:id="rId1"/>
     <sheet name="PET_NAME" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A10:D16"/>
+  <oleSize ref="A16:G22"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="296">
   <si>
     <t>User_Dog_Gut</t>
   </si>
@@ -891,35 +891,25 @@
     <t>3DKJUC</t>
   </si>
   <si>
-    <t>Taffy1</t>
-  </si>
-  <si>
-    <t>Taffy2</t>
-  </si>
-  <si>
-    <t>Charlie4</t>
-  </si>
-  <si>
-    <t>Leo3</t>
-  </si>
-  <si>
-    <t>Snowy2</t>
-  </si>
-  <si>
-    <t>Milo3</t>
-  </si>
-  <si>
-    <t>Charlie5</t>
-  </si>
-  <si>
-    <t>Taffy3</t>
+    <t>Taffy4</t>
+  </si>
+  <si>
+    <t>Polo3</t>
+  </si>
+  <si>
+    <t>Kitty1</t>
+  </si>
+  <si>
+    <t>Onyx1</t>
+  </si>
+  <si>
+    <t>Cutie1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -936,7 +926,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -945,11 +935,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
         <fgColor indexed="13"/>
       </patternFill>
     </fill>
@@ -966,7 +951,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1003,13 +988,20 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1314,26 +1306,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J58"/>
+  <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="17.81640625"/>
-    <col min="2" max="2" customWidth="true" style="1" width="15.0"/>
-    <col min="3" max="3" customWidth="true" style="1" width="15.36328125"/>
-    <col min="4" max="4" customWidth="true" style="1" width="17.453125"/>
-    <col min="5" max="5" customWidth="true" style="1" width="16.6328125"/>
-    <col min="6" max="6" customWidth="true" style="1" width="18.0"/>
-    <col min="7" max="7" customWidth="true" style="1" width="17.26953125"/>
-    <col min="8" max="8" customWidth="true" style="1" width="18.1796875"/>
-    <col min="9" max="9" customWidth="true" style="1" width="18.36328125"/>
-    <col min="10" max="10" customWidth="true" style="1" width="17.453125"/>
-    <col min="11" max="11" customWidth="true" style="1" width="17.36328125"/>
-    <col min="12" max="16384" style="1" width="8.7265625"/>
+    <col min="1" max="1" width="17.81640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.36328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.453125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.6328125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.26953125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="18.1796875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="18.36328125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="17.453125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17.36328125" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
@@ -1491,7 +1483,7 @@
       <c r="A9" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="45" t="s">
         <v>107</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -1508,7 +1500,7 @@
       <c r="A10" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="48" t="s">
         <v>108</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -1522,7 +1514,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="43" t="s">
         <v>53</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -1539,7 +1531,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="44" t="s">
         <v>54</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -1556,7 +1548,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="46" t="s">
         <v>55</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -1573,7 +1565,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="47" t="s">
         <v>56</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -1590,7 +1582,7 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="49" t="s">
         <v>57</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -2274,145 +2266,136 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="26.90625"/>
-    <col min="2" max="2" customWidth="true" width="29.453125"/>
-    <col min="3" max="3" customWidth="true" width="35.6328125"/>
-    <col min="4" max="4" customWidth="true" width="30.90625"/>
-    <col min="5" max="5" customWidth="true" width="32.7265625"/>
-    <col min="6" max="6" customWidth="true" width="32.1796875"/>
-    <col min="7" max="7" customWidth="true" width="33.6328125"/>
-    <col min="8" max="8" customWidth="true" width="31.26953125"/>
+    <col min="1" max="1" width="26.90625" customWidth="1"/>
+    <col min="2" max="2" width="29.453125" customWidth="1"/>
+    <col min="3" max="3" width="35.6328125" customWidth="1"/>
+    <col min="4" max="4" width="30.90625" customWidth="1"/>
+    <col min="5" max="5" width="32.7265625" customWidth="1"/>
+    <col min="6" max="6" width="32.1796875" customWidth="1"/>
+    <col min="7" max="7" width="33.6328125" customWidth="1"/>
+    <col min="8" max="8" width="31.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" t="s" s="0">
+      <c r="A1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="C1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" t="s" s="0">
+      <c r="D1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" t="s" s="0">
+      <c r="E1" t="s">
         <v>14</v>
       </c>
-      <c r="F1" t="s" s="0">
+      <c r="F1" t="s">
         <v>15</v>
       </c>
-      <c r="G1" t="s" s="0">
+      <c r="G1" t="s">
         <v>16</v>
       </c>
-      <c r="H1" t="s" s="0">
+      <c r="H1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" t="s" s="0">
+      <c r="A2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B2" t="s">
+        <v>293</v>
+      </c>
+      <c r="C2" t="s">
         <v>29</v>
       </c>
-      <c r="C2" t="s" s="0">
+      <c r="D2" t="s">
         <v>29</v>
       </c>
-      <c r="D2" t="s" s="0">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>291</v>
+      </c>
+      <c r="B3" t="s">
+        <v>294</v>
+      </c>
+      <c r="C3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" t="s" s="0">
+      <c r="D3" t="s">
         <v>29</v>
       </c>
-      <c r="C3" t="s" s="0">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>29</v>
       </c>
-      <c r="D3" t="s" s="0">
+      <c r="B4" t="s">
+        <v>295</v>
+      </c>
+      <c r="C4" t="s">
+        <v>250</v>
+      </c>
+      <c r="D4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" t="s" s="0">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>29</v>
       </c>
-      <c r="C4" t="s" s="0">
-        <v>250</v>
-      </c>
-      <c r="D4" t="s" s="0">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" t="s" s="0">
-        <v>296</v>
-      </c>
-      <c r="C5" t="s" s="0">
+      <c r="C5" t="s">
         <v>251</v>
       </c>
-      <c r="D5" t="s" s="0">
+      <c r="D5" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="C6" t="s" s="0">
+      <c r="C6" t="s">
         <v>252</v>
       </c>
-      <c r="D6" t="s" s="0">
+      <c r="D6" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="D7" t="s" s="0">
+      <c r="D7" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="D8" t="s" s="0">
+      <c r="D8" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="D9" t="s" s="0">
+      <c r="D9" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="D10" t="s" s="0">
+      <c r="D10" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="D11" t="s" s="0">
+      <c r="D11" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="D12" t="s" s="0">
+      <c r="D12" t="s">
         <v>260</v>
       </c>
     </row>

--- a/animalBiome_Automation/src/test/resources/data/samples.xlsx
+++ b/animalBiome_Automation/src/test/resources/data/samples.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14570" windowHeight="2870"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14240" windowHeight="2530" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="SAMPLE_ID" sheetId="1" r:id="rId1"/>
     <sheet name="PET_NAME" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A16:G22"/>
+  <oleSize ref="A1:D7"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="296">
   <si>
     <t>User_Dog_Gut</t>
   </si>
@@ -897,13 +897,13 @@
     <t>Polo3</t>
   </si>
   <si>
-    <t>Kitty1</t>
-  </si>
-  <si>
-    <t>Onyx1</t>
-  </si>
-  <si>
-    <t>Cutie1</t>
+    <t>Cutie3</t>
+  </si>
+  <si>
+    <t>Cinder3</t>
+  </si>
+  <si>
+    <t>Kitty3</t>
   </si>
 </sst>
 </file>
@@ -926,7 +926,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -936,6 +936,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -951,7 +957,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -999,6 +1005,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1308,8 +1319,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1367,10 +1378,10 @@
       <c r="B2" s="31" t="s">
         <v>100</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="50" t="s">
         <v>150</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="53" t="s">
         <v>200</v>
       </c>
       <c r="E2" s="4" t="s">
@@ -1384,10 +1395,10 @@
       <c r="B3" s="32" t="s">
         <v>101</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="52" t="s">
         <v>151</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="54" t="s">
         <v>201</v>
       </c>
       <c r="E3" s="6" t="s">
@@ -1401,10 +1412,10 @@
       <c r="B4" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="51" t="s">
         <v>152</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="51" t="s">
         <v>202</v>
       </c>
       <c r="E4" s="7" t="s">
@@ -1421,7 +1432,7 @@
       <c r="C5" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="51" t="s">
         <v>203</v>
       </c>
       <c r="E5" s="8" t="s">
@@ -2266,8 +2277,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2313,7 +2324,7 @@
         <v>292</v>
       </c>
       <c r="B2" t="s">
-        <v>293</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
         <v>29</v>
@@ -2327,7 +2338,7 @@
         <v>291</v>
       </c>
       <c r="B3" t="s">
-        <v>294</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
         <v>29</v>
@@ -2341,7 +2352,7 @@
         <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>295</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
         <v>250</v>
@@ -2354,14 +2365,17 @@
       <c r="A5" t="s">
         <v>29</v>
       </c>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
       <c r="C5" t="s">
-        <v>251</v>
-      </c>
-      <c r="D5" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>293</v>
+      </c>
       <c r="C6" t="s">
         <v>252</v>
       </c>
@@ -2370,11 +2384,20 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>294</v>
+      </c>
+      <c r="C7" t="s">
+        <v>251</v>
+      </c>
       <c r="D7" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>295</v>
+      </c>
       <c r="D8" t="s">
         <v>256</v>
       </c>

--- a/animalBiome_Automation/src/test/resources/data/samples.xlsx
+++ b/animalBiome_Automation/src/test/resources/data/samples.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14240" windowHeight="2530" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14240" windowHeight="2680" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="SAMPLE_ID" sheetId="1" r:id="rId1"/>
     <sheet name="PET_NAME" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:D7"/>
+  <oleSize ref="A4:D10"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="308">
   <si>
     <t>User_Dog_Gut</t>
   </si>
@@ -618,18 +618,6 @@
     <t>PATJTJ</t>
   </si>
   <si>
-    <t>R4JHYN</t>
-  </si>
-  <si>
-    <t>TNPCEU</t>
-  </si>
-  <si>
-    <t>CFDGCU</t>
-  </si>
-  <si>
-    <t>NJFJTH</t>
-  </si>
-  <si>
     <t>XAN6GY</t>
   </si>
   <si>
@@ -891,25 +879,74 @@
     <t>3DKJUC</t>
   </si>
   <si>
-    <t>Taffy4</t>
-  </si>
-  <si>
-    <t>Polo3</t>
-  </si>
-  <si>
-    <t>Cutie3</t>
-  </si>
-  <si>
-    <t>Cinder3</t>
-  </si>
-  <si>
-    <t>Kitty3</t>
+    <t>Taffy6</t>
+  </si>
+  <si>
+    <t>Taffy7</t>
+  </si>
+  <si>
+    <t>Taffy8</t>
+  </si>
+  <si>
+    <t>Charlie7</t>
+  </si>
+  <si>
+    <t>Leo5</t>
+  </si>
+  <si>
+    <t>Snowy5</t>
+  </si>
+  <si>
+    <t>Milo6</t>
+  </si>
+  <si>
+    <t>Polo4</t>
+  </si>
+  <si>
+    <t>Onyx6</t>
+  </si>
+  <si>
+    <t>Cutie5</t>
+  </si>
+  <si>
+    <t>Cinder5</t>
+  </si>
+  <si>
+    <t>Kitty5</t>
+  </si>
+  <si>
+    <t>scout2</t>
+  </si>
+  <si>
+    <t>fury2</t>
+  </si>
+  <si>
+    <t>Bandit2</t>
+  </si>
+  <si>
+    <t>Thunder3</t>
+  </si>
+  <si>
+    <t>Primate4</t>
+  </si>
+  <si>
+    <t>Primate5</t>
+  </si>
+  <si>
+    <t>Rabbit4</t>
+  </si>
+  <si>
+    <t>Cattle4</t>
+  </si>
+  <si>
+    <t>Bird5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -939,9 +976,8 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
+      <patternFill patternType="none">
+        <fgColor indexed="13"/>
       </patternFill>
     </fill>
   </fills>
@@ -957,7 +993,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1009,10 +1045,27 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1317,26 +1370,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K58"/>
+  <dimension ref="A1:J58"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.81640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.36328125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.453125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.6328125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.26953125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="18.1796875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="18.36328125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="17.453125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="17.36328125" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="17.81640625"/>
+    <col min="2" max="2" customWidth="true" style="1" width="15.0"/>
+    <col min="3" max="3" customWidth="true" style="1" width="15.36328125"/>
+    <col min="4" max="4" customWidth="true" style="1" width="17.453125"/>
+    <col min="5" max="5" customWidth="true" style="1" width="16.6328125"/>
+    <col min="6" max="6" customWidth="true" style="1" width="18.0"/>
+    <col min="7" max="7" customWidth="true" style="1" width="17.26953125"/>
+    <col min="8" max="8" customWidth="true" style="1" width="18.1796875"/>
+    <col min="9" max="9" customWidth="true" style="1" width="18.36328125"/>
+    <col min="10" max="10" customWidth="true" style="1" width="17.453125"/>
+    <col min="11" max="11" customWidth="true" style="1" width="17.36328125"/>
+    <col min="12" max="16384" style="1" width="8.7265625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
@@ -1381,7 +1434,7 @@
       <c r="C2" s="50" t="s">
         <v>150</v>
       </c>
-      <c r="D2" s="53" t="s">
+      <c r="D2" s="58" t="s">
         <v>200</v>
       </c>
       <c r="E2" s="4" t="s">
@@ -1395,10 +1448,10 @@
       <c r="B3" s="32" t="s">
         <v>101</v>
       </c>
-      <c r="C3" s="52" t="s">
+      <c r="C3" s="51" t="s">
         <v>151</v>
       </c>
-      <c r="D3" s="54" t="s">
+      <c r="D3" s="60" t="s">
         <v>201</v>
       </c>
       <c r="E3" s="6" t="s">
@@ -1412,10 +1465,10 @@
       <c r="B4" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="C4" s="51" t="s">
+      <c r="C4" s="52" t="s">
         <v>152</v>
       </c>
-      <c r="D4" s="51" t="s">
+      <c r="D4" s="1" t="s">
         <v>202</v>
       </c>
       <c r="E4" s="7" t="s">
@@ -1429,10 +1482,10 @@
       <c r="B5" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="53" t="s">
         <v>153</v>
       </c>
-      <c r="D5" s="51" t="s">
+      <c r="D5" s="1" t="s">
         <v>203</v>
       </c>
       <c r="E5" s="8" t="s">
@@ -1446,7 +1499,7 @@
       <c r="B6" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="54" t="s">
         <v>154</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -1463,7 +1516,7 @@
       <c r="B7" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="55" t="s">
         <v>155</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -1480,7 +1533,7 @@
       <c r="B8" s="41" t="s">
         <v>106</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="56" t="s">
         <v>156</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -1497,7 +1550,7 @@
       <c r="B9" s="45" t="s">
         <v>107</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="57" t="s">
         <v>157</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -1514,7 +1567,7 @@
       <c r="B10" s="48" t="s">
         <v>108</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="59" t="s">
         <v>158</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -1531,7 +1584,7 @@
       <c r="B11" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="61" t="s">
         <v>159</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -1548,7 +1601,7 @@
       <c r="B12" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="62" t="s">
         <v>160</v>
       </c>
       <c r="D12" s="1" t="s">
@@ -1565,7 +1618,7 @@
       <c r="B13" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="63" t="s">
         <v>161</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -1582,7 +1635,7 @@
       <c r="B14" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="64" t="s">
         <v>162</v>
       </c>
       <c r="D14" s="1" t="s">
@@ -1599,7 +1652,7 @@
       <c r="B15" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="65" t="s">
         <v>163</v>
       </c>
       <c r="D15" s="1" t="s">
@@ -1610,13 +1663,13 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="71" t="s">
         <v>58</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="66" t="s">
         <v>164</v>
       </c>
       <c r="D16" s="1" t="s">
@@ -1633,7 +1686,7 @@
       <c r="B17" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="67" t="s">
         <v>165</v>
       </c>
       <c r="D17" s="1" t="s">
@@ -1650,7 +1703,7 @@
       <c r="B18" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="68" t="s">
         <v>166</v>
       </c>
       <c r="D18" s="1" t="s">
@@ -1667,7 +1720,7 @@
       <c r="B19" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="69" t="s">
         <v>167</v>
       </c>
       <c r="D19" s="1" t="s">
@@ -1684,7 +1737,7 @@
       <c r="B20" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="70" t="s">
         <v>168</v>
       </c>
       <c r="D20" s="1" t="s">
@@ -1810,7 +1863,7 @@
         <v>225</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
@@ -1827,7 +1880,7 @@
         <v>226</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
@@ -1844,7 +1897,7 @@
         <v>227</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
@@ -1861,7 +1914,7 @@
         <v>228</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
@@ -1878,7 +1931,7 @@
         <v>229</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
@@ -1895,7 +1948,7 @@
         <v>230</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
@@ -1912,7 +1965,7 @@
         <v>231</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
@@ -1929,7 +1982,7 @@
         <v>232</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
@@ -1946,7 +1999,7 @@
         <v>233</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
@@ -1963,7 +2016,7 @@
         <v>234</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
@@ -1980,7 +2033,7 @@
         <v>235</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
@@ -1997,7 +2050,7 @@
         <v>236</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
@@ -2014,7 +2067,7 @@
         <v>237</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
@@ -2031,7 +2084,7 @@
         <v>238</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
@@ -2048,7 +2101,7 @@
         <v>239</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
@@ -2065,7 +2118,7 @@
         <v>240</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
@@ -2082,7 +2135,7 @@
         <v>241</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
@@ -2099,7 +2152,7 @@
         <v>242</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
@@ -2116,7 +2169,7 @@
         <v>243</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
@@ -2133,7 +2186,7 @@
         <v>244</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
@@ -2150,7 +2203,7 @@
         <v>245</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
@@ -2163,11 +2216,8 @@
       <c r="C48" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="D48" s="1" t="s">
-        <v>246</v>
-      </c>
       <c r="E48" s="1" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
@@ -2180,11 +2230,8 @@
       <c r="C49" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="D49" s="1" t="s">
-        <v>247</v>
-      </c>
       <c r="E49" s="1" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
@@ -2197,11 +2244,8 @@
       <c r="C50" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="D50" s="1" t="s">
-        <v>248</v>
-      </c>
       <c r="E50" s="1" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
@@ -2214,11 +2258,8 @@
       <c r="C51" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="D51" s="1" t="s">
-        <v>249</v>
-      </c>
       <c r="E51" s="1" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
@@ -2226,7 +2267,7 @@
         <v>94</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
@@ -2234,7 +2275,7 @@
         <v>95</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
@@ -2242,7 +2283,7 @@
         <v>96</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
@@ -2250,7 +2291,7 @@
         <v>97</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
@@ -2258,7 +2299,7 @@
         <v>98</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
@@ -2275,151 +2316,177 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.90625" customWidth="1"/>
-    <col min="2" max="2" width="29.453125" customWidth="1"/>
-    <col min="3" max="3" width="35.6328125" customWidth="1"/>
-    <col min="4" max="4" width="30.90625" customWidth="1"/>
-    <col min="5" max="5" width="32.7265625" customWidth="1"/>
-    <col min="6" max="6" width="32.1796875" customWidth="1"/>
-    <col min="7" max="7" width="33.6328125" customWidth="1"/>
-    <col min="8" max="8" width="31.26953125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="26.90625"/>
+    <col min="2" max="2" customWidth="true" width="29.453125"/>
+    <col min="3" max="3" customWidth="true" width="35.6328125"/>
+    <col min="4" max="4" customWidth="true" width="30.90625"/>
+    <col min="5" max="5" customWidth="true" width="32.7265625"/>
+    <col min="6" max="6" customWidth="true" width="32.1796875"/>
+    <col min="7" max="7" customWidth="true" width="33.6328125"/>
+    <col min="8" max="8" customWidth="true" width="31.26953125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" t="s" s="0">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
+        <v>290</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>295</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>299</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" t="s" s="0">
+        <v>288</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>296</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>300</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" t="s" s="0">
+        <v>289</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>297</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" t="s" s="0">
+        <v>291</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>249</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" t="s" s="0">
         <v>292</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B6" t="s" s="0">
         <v>29</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C6" t="s" s="0">
+        <v>248</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" t="s" s="0">
+        <v>293</v>
+      </c>
+      <c r="B7" t="s" s="0">
         <v>29</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C7" t="s" s="0">
+        <v>247</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" t="s" s="0">
+        <v>294</v>
+      </c>
+      <c r="B8" t="s" s="0">
         <v>29</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>291</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C8" t="s" s="0">
+        <v>301</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B9" t="s" s="0">
         <v>29</v>
       </c>
-      <c r="C3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" t="s">
-        <v>250</v>
-      </c>
-      <c r="D4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="C9" t="s" s="0">
+        <v>302</v>
+      </c>
+      <c r="D9" t="s" s="0">
         <v>253</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B6" t="s">
-        <v>293</v>
-      </c>
-      <c r="C6" t="s">
-        <v>252</v>
-      </c>
-      <c r="D6" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D10" t="s" s="0">
         <v>254</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B7" t="s">
-        <v>294</v>
-      </c>
-      <c r="C7" t="s">
-        <v>251</v>
-      </c>
-      <c r="D7" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D11" t="s" s="0">
         <v>255</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B8" t="s">
-        <v>295</v>
-      </c>
-      <c r="D8" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D12" t="s" s="0">
         <v>256</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="D9" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="D10" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="D11" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="D12" t="s">
-        <v>260</v>
+    <row r="13">
+      <c r="D13" t="s" s="0">
+        <v>307</v>
       </c>
     </row>
   </sheetData>

--- a/animalBiome_Automation/src/test/resources/data/samples.xlsx
+++ b/animalBiome_Automation/src/test/resources/data/samples.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14240" windowHeight="2680" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14410" windowHeight="2000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="SAMPLE_ID" sheetId="1" r:id="rId1"/>
     <sheet name="PET_NAME" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A4:D10"/>
+  <oleSize ref="B10:E14"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="312">
   <si>
     <t>User_Dog_Gut</t>
   </si>
@@ -768,27 +768,6 @@
     <t>Rabbit1</t>
   </si>
   <si>
-    <t>Cattle1</t>
-  </si>
-  <si>
-    <t>Sheep1</t>
-  </si>
-  <si>
-    <t>Bird3</t>
-  </si>
-  <si>
-    <t>Sheep2</t>
-  </si>
-  <si>
-    <t>Cattle3</t>
-  </si>
-  <si>
-    <t>Bird4</t>
-  </si>
-  <si>
-    <t>Sheep3</t>
-  </si>
-  <si>
     <t>CKXFNF</t>
   </si>
   <si>
@@ -879,67 +858,100 @@
     <t>3DKJUC</t>
   </si>
   <si>
-    <t>Taffy6</t>
-  </si>
-  <si>
-    <t>Taffy7</t>
-  </si>
-  <si>
-    <t>Taffy8</t>
-  </si>
-  <si>
-    <t>Charlie7</t>
-  </si>
-  <si>
-    <t>Leo5</t>
-  </si>
-  <si>
-    <t>Snowy5</t>
-  </si>
-  <si>
-    <t>Milo6</t>
-  </si>
-  <si>
-    <t>Polo4</t>
-  </si>
-  <si>
-    <t>Onyx6</t>
-  </si>
-  <si>
-    <t>Cutie5</t>
-  </si>
-  <si>
-    <t>Cinder5</t>
-  </si>
-  <si>
-    <t>Kitty5</t>
-  </si>
-  <si>
-    <t>scout2</t>
-  </si>
-  <si>
-    <t>fury2</t>
-  </si>
-  <si>
-    <t>Bandit2</t>
-  </si>
-  <si>
     <t>Thunder3</t>
   </si>
   <si>
-    <t>Primate4</t>
-  </si>
-  <si>
-    <t>Primate5</t>
-  </si>
-  <si>
-    <t>Rabbit4</t>
-  </si>
-  <si>
-    <t>Cattle4</t>
-  </si>
-  <si>
-    <t>Bird5</t>
+    <t>Kitty6</t>
+  </si>
+  <si>
+    <t>Leo7</t>
+  </si>
+  <si>
+    <t>Snowy7</t>
+  </si>
+  <si>
+    <t>Milo8</t>
+  </si>
+  <si>
+    <t>Kitty7</t>
+  </si>
+  <si>
+    <t>pony3</t>
+  </si>
+  <si>
+    <t>scout3</t>
+  </si>
+  <si>
+    <t>fury3</t>
+  </si>
+  <si>
+    <t>Bandit3</t>
+  </si>
+  <si>
+    <t>Thunder4</t>
+  </si>
+  <si>
+    <t>Ryder3</t>
+  </si>
+  <si>
+    <t>Charlie10</t>
+  </si>
+  <si>
+    <t>Leo8</t>
+  </si>
+  <si>
+    <t>Snowy8</t>
+  </si>
+  <si>
+    <t>Milo9</t>
+  </si>
+  <si>
+    <t>Taffy13</t>
+  </si>
+  <si>
+    <t>Polo8</t>
+  </si>
+  <si>
+    <t>Kitty8</t>
+  </si>
+  <si>
+    <t>pony4</t>
+  </si>
+  <si>
+    <t>Cattle8</t>
+  </si>
+  <si>
+    <t>Primate12</t>
+  </si>
+  <si>
+    <t>Rabbit11</t>
+  </si>
+  <si>
+    <t>Cattle9</t>
+  </si>
+  <si>
+    <t>Bird10</t>
+  </si>
+  <si>
+    <t>Sheep10</t>
+  </si>
+  <si>
+    <t>Charlie11</t>
+  </si>
+  <si>
+    <t>Charlie12</t>
+  </si>
+  <si>
+    <t>Leo9</t>
+  </si>
+  <si>
+    <t>Snowy9</t>
+  </si>
+  <si>
+    <t>Milo10</t>
+  </si>
+  <si>
+    <t>Taffy14</t>
   </si>
 </sst>
 </file>
@@ -993,7 +1005,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1065,6 +1077,58 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1372,8 +1436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J58"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1468,7 +1532,7 @@
       <c r="C4" s="52" t="s">
         <v>152</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="79" t="s">
         <v>202</v>
       </c>
       <c r="E4" s="7" t="s">
@@ -1485,7 +1549,7 @@
       <c r="C5" s="53" t="s">
         <v>153</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="80" t="s">
         <v>203</v>
       </c>
       <c r="E5" s="8" t="s">
@@ -1502,7 +1566,7 @@
       <c r="C6" s="54" t="s">
         <v>154</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="81" t="s">
         <v>204</v>
       </c>
       <c r="E6" s="9" t="s">
@@ -1519,7 +1583,7 @@
       <c r="C7" s="55" t="s">
         <v>155</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="101" t="s">
         <v>205</v>
       </c>
       <c r="E7" s="10" t="s">
@@ -1536,7 +1600,7 @@
       <c r="C8" s="56" t="s">
         <v>156</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="102" t="s">
         <v>206</v>
       </c>
       <c r="E8" s="11" t="s">
@@ -1553,7 +1617,7 @@
       <c r="C9" s="57" t="s">
         <v>157</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="111" t="s">
         <v>207</v>
       </c>
       <c r="E9" s="12" t="s">
@@ -1570,7 +1634,7 @@
       <c r="C10" s="59" t="s">
         <v>158</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="112" t="s">
         <v>208</v>
       </c>
       <c r="E10" s="13" t="s">
@@ -1581,7 +1645,7 @@
       <c r="A11" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="73" t="s">
         <v>109</v>
       </c>
       <c r="C11" s="61" t="s">
@@ -1598,7 +1662,7 @@
       <c r="A12" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="99" t="s">
         <v>110</v>
       </c>
       <c r="C12" s="62" t="s">
@@ -1615,7 +1679,7 @@
       <c r="A13" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="108" t="s">
         <v>111</v>
       </c>
       <c r="C13" s="63" t="s">
@@ -1680,7 +1744,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="72" t="s">
         <v>59</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -1697,7 +1761,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="74" t="s">
         <v>60</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -1714,7 +1778,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="95" t="s">
         <v>61</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -1731,7 +1795,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="96" t="s">
         <v>62</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -1748,13 +1812,13 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="97" t="s">
         <v>63</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="75" t="s">
         <v>169</v>
       </c>
       <c r="D21" s="1" t="s">
@@ -1765,13 +1829,13 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="98" t="s">
         <v>64</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="76" t="s">
         <v>170</v>
       </c>
       <c r="D22" s="1" t="s">
@@ -1782,13 +1846,13 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="107" t="s">
         <v>65</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="77" t="s">
         <v>171</v>
       </c>
       <c r="D23" s="1" t="s">
@@ -1799,13 +1863,13 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="109" t="s">
         <v>66</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="78" t="s">
         <v>172</v>
       </c>
       <c r="D24" s="1" t="s">
@@ -1822,7 +1886,7 @@
       <c r="B25" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="100" t="s">
         <v>173</v>
       </c>
       <c r="D25" s="1" t="s">
@@ -1839,7 +1903,7 @@
       <c r="B26" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="110" t="s">
         <v>174</v>
       </c>
       <c r="D26" s="1" t="s">
@@ -1862,8 +1926,8 @@
       <c r="D27" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>257</v>
+      <c r="E27" s="82" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
@@ -1879,8 +1943,8 @@
       <c r="D28" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>258</v>
+      <c r="E28" s="83" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
@@ -1896,8 +1960,8 @@
       <c r="D29" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>259</v>
+      <c r="E29" s="84" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
@@ -1913,8 +1977,8 @@
       <c r="D30" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>260</v>
+      <c r="E30" s="85" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
@@ -1930,8 +1994,8 @@
       <c r="D31" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="E31" s="1" t="s">
-        <v>261</v>
+      <c r="E31" s="86" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
@@ -1947,8 +2011,8 @@
       <c r="D32" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>262</v>
+      <c r="E32" s="87" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
@@ -1964,8 +2028,8 @@
       <c r="D33" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="E33" s="1" t="s">
-        <v>263</v>
+      <c r="E33" s="88" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
@@ -1981,8 +2045,8 @@
       <c r="D34" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="E34" s="1" t="s">
-        <v>264</v>
+      <c r="E34" s="89" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
@@ -1998,8 +2062,8 @@
       <c r="D35" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="E35" s="1" t="s">
-        <v>265</v>
+      <c r="E35" s="90" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
@@ -2015,8 +2079,8 @@
       <c r="D36" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="E36" s="1" t="s">
-        <v>266</v>
+      <c r="E36" s="91" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
@@ -2032,8 +2096,8 @@
       <c r="D37" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="E37" s="1" t="s">
-        <v>267</v>
+      <c r="E37" s="92" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
@@ -2049,8 +2113,8 @@
       <c r="D38" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="E38" s="1" t="s">
-        <v>268</v>
+      <c r="E38" s="93" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
@@ -2066,8 +2130,8 @@
       <c r="D39" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="E39" s="1" t="s">
-        <v>269</v>
+      <c r="E39" s="94" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
@@ -2083,8 +2147,8 @@
       <c r="D40" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="E40" s="1" t="s">
-        <v>270</v>
+      <c r="E40" s="103" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
@@ -2100,8 +2164,8 @@
       <c r="D41" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="E41" s="1" t="s">
-        <v>271</v>
+      <c r="E41" s="104" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
@@ -2117,8 +2181,8 @@
       <c r="D42" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="E42" s="1" t="s">
-        <v>272</v>
+      <c r="E42" s="105" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
@@ -2134,8 +2198,8 @@
       <c r="D43" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="E43" s="1" t="s">
-        <v>273</v>
+      <c r="E43" s="106" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
@@ -2151,8 +2215,8 @@
       <c r="D44" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="E44" s="1" t="s">
-        <v>274</v>
+      <c r="E44" s="113" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
@@ -2168,8 +2232,8 @@
       <c r="D45" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="E45" s="1" t="s">
-        <v>275</v>
+      <c r="E45" s="114" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
@@ -2185,8 +2249,8 @@
       <c r="D46" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="E46" s="1" t="s">
-        <v>276</v>
+      <c r="E46" s="115" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
@@ -2202,8 +2266,8 @@
       <c r="D47" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="E47" s="1" t="s">
-        <v>277</v>
+      <c r="E47" s="116" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
@@ -2216,8 +2280,8 @@
       <c r="C48" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="E48" s="1" t="s">
-        <v>278</v>
+      <c r="E48" s="117" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
@@ -2230,8 +2294,8 @@
       <c r="C49" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="E49" s="1" t="s">
-        <v>279</v>
+      <c r="E49" s="118" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
@@ -2244,8 +2308,8 @@
       <c r="C50" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="E50" s="1" t="s">
-        <v>280</v>
+      <c r="E50" s="119" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
@@ -2258,32 +2322,32 @@
       <c r="C51" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="E51" s="1" t="s">
-        <v>281</v>
+      <c r="E51" s="120" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E52" s="1" t="s">
-        <v>282</v>
+      <c r="E52" s="121" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E53" s="1" t="s">
-        <v>283</v>
+      <c r="E53" s="122" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E54" s="1" t="s">
-        <v>284</v>
+      <c r="E54" s="123" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
@@ -2291,7 +2355,7 @@
         <v>97</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
@@ -2299,7 +2363,7 @@
         <v>98</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
@@ -2316,10 +2380,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="B6" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2362,133 +2426,178 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s" s="0">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>295</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>299</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>303</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s" s="0">
-        <v>288</v>
+        <v>306</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>296</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>300</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>304</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s" s="0">
-        <v>289</v>
+        <v>307</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>297</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s" s="0">
         <v>246</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>305</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s" s="0">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="C5" t="s" s="0">
         <v>249</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>306</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s" s="0">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>29</v>
+        <v>286</v>
       </c>
       <c r="C6" t="s" s="0">
         <v>248</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>250</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s" s="0">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>29</v>
+        <v>298</v>
       </c>
       <c r="C7" t="s" s="0">
         <v>247</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>251</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s" s="0">
+        <v>281</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>299</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" t="s" s="0">
+        <v>292</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>280</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" t="s" s="0">
+        <v>293</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>287</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" t="s" s="0">
         <v>294</v>
       </c>
-      <c r="B8" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="C8" t="s" s="0">
-        <v>301</v>
-      </c>
-      <c r="D8" t="s" s="0">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B9" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="C9" t="s" s="0">
-        <v>302</v>
-      </c>
-      <c r="D9" t="s" s="0">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="D10" t="s" s="0">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C11" t="s" s="0">
+        <v>288</v>
+      </c>
       <c r="D11" t="s" s="0">
-        <v>255</v>
+        <v>304</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" t="s" s="0">
+        <v>295</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>289</v>
+      </c>
       <c r="D12" t="s" s="0">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="D13" t="s" s="0">
-        <v>307</v>
-      </c>
-    </row>
+        <v>305</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" t="s" s="0">
+        <v>296</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" t="s" s="0">
+        <v>308</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" t="s" s="0">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16" t="s" s="0">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" t="s" s="0">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/animalBiome_Automation/src/test/resources/data/samples.xlsx
+++ b/animalBiome_Automation/src/test/resources/data/samples.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14410" windowHeight="2000" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14410" windowHeight="3410" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="SAMPLE_ID" sheetId="1" r:id="rId1"/>
     <sheet name="PET_NAME" sheetId="2" r:id="rId2"/>
+    <sheet name="ADD_PET" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="B10:E14"/>
+  <oleSize ref="A1:D10"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="991">
   <si>
     <t>User_Dog_Gut</t>
   </si>
@@ -756,18 +757,6 @@
     <t>KEF67M</t>
   </si>
   <si>
-    <t>fury1</t>
-  </si>
-  <si>
-    <t>Bandit1</t>
-  </si>
-  <si>
-    <t>Thunder2</t>
-  </si>
-  <si>
-    <t>Rabbit1</t>
-  </si>
-  <si>
     <t>CKXFNF</t>
   </si>
   <si>
@@ -858,100 +847,2149 @@
     <t>3DKJUC</t>
   </si>
   <si>
-    <t>Thunder3</t>
-  </si>
-  <si>
-    <t>Kitty6</t>
-  </si>
-  <si>
-    <t>Leo7</t>
-  </si>
-  <si>
-    <t>Snowy7</t>
-  </si>
-  <si>
-    <t>Milo8</t>
-  </si>
-  <si>
-    <t>Kitty7</t>
-  </si>
-  <si>
-    <t>pony3</t>
-  </si>
-  <si>
-    <t>scout3</t>
-  </si>
-  <si>
-    <t>fury3</t>
-  </si>
-  <si>
-    <t>Bandit3</t>
-  </si>
-  <si>
-    <t>Thunder4</t>
-  </si>
-  <si>
-    <t>Ryder3</t>
-  </si>
-  <si>
-    <t>Charlie10</t>
-  </si>
-  <si>
-    <t>Leo8</t>
-  </si>
-  <si>
-    <t>Snowy8</t>
-  </si>
-  <si>
-    <t>Milo9</t>
-  </si>
-  <si>
-    <t>Taffy13</t>
-  </si>
-  <si>
-    <t>Polo8</t>
-  </si>
-  <si>
-    <t>Kitty8</t>
-  </si>
-  <si>
-    <t>pony4</t>
-  </si>
-  <si>
-    <t>Cattle8</t>
-  </si>
-  <si>
-    <t>Primate12</t>
-  </si>
-  <si>
-    <t>Rabbit11</t>
-  </si>
-  <si>
-    <t>Cattle9</t>
-  </si>
-  <si>
-    <t>Bird10</t>
-  </si>
-  <si>
-    <t>Sheep10</t>
-  </si>
-  <si>
-    <t>Charlie11</t>
-  </si>
-  <si>
-    <t>Charlie12</t>
-  </si>
-  <si>
-    <t>Leo9</t>
-  </si>
-  <si>
-    <t>Snowy9</t>
-  </si>
-  <si>
-    <t>Milo10</t>
-  </si>
-  <si>
-    <t>Taffy14</t>
+    <t>MHC46V</t>
+  </si>
+  <si>
+    <t>CRTVTE</t>
+  </si>
+  <si>
+    <t>FECDUE</t>
+  </si>
+  <si>
+    <t>MURKMJ</t>
+  </si>
+  <si>
+    <t>NCDRAE</t>
+  </si>
+  <si>
+    <t>RPJF7R</t>
+  </si>
+  <si>
+    <t>KR49JG</t>
+  </si>
+  <si>
+    <t>NFPMGU</t>
+  </si>
+  <si>
+    <t>D6PY6T</t>
+  </si>
+  <si>
+    <t>KRXCMD</t>
+  </si>
+  <si>
+    <t>X9UKH9</t>
+  </si>
+  <si>
+    <t>MERGAF</t>
+  </si>
+  <si>
+    <t>EHFNP6</t>
+  </si>
+  <si>
+    <t>RCGVXX</t>
+  </si>
+  <si>
+    <t>VANXGX</t>
+  </si>
+  <si>
+    <t>AXEYKV</t>
+  </si>
+  <si>
+    <t>THAYJE</t>
+  </si>
+  <si>
+    <t>J94GEJ</t>
+  </si>
+  <si>
+    <t>RPMDTR</t>
+  </si>
+  <si>
+    <t>YCTECN</t>
+  </si>
+  <si>
+    <t>USER_DOG</t>
+  </si>
+  <si>
+    <t>USER_CAT</t>
+  </si>
+  <si>
+    <t>USER_HORSE</t>
+  </si>
+  <si>
+    <t>USER_OTHERS</t>
+  </si>
+  <si>
+    <t>VET_DOG</t>
+  </si>
+  <si>
+    <t>VET_CAT</t>
+  </si>
+  <si>
+    <t>VET_HORSE</t>
+  </si>
+  <si>
+    <t>VET_OTHERS</t>
+  </si>
+  <si>
+    <t>Thunder</t>
+  </si>
+  <si>
+    <t>Lightning</t>
+  </si>
+  <si>
+    <t>Storm</t>
+  </si>
+  <si>
+    <t>Majesty</t>
+  </si>
+  <si>
+    <t>Spirit</t>
+  </si>
+  <si>
+    <t>Silver</t>
+  </si>
+  <si>
+    <t>Whirlwind</t>
+  </si>
+  <si>
+    <t>Windy</t>
+  </si>
+  <si>
+    <t>Nebula</t>
+  </si>
+  <si>
+    <t>Tornado</t>
+  </si>
+  <si>
+    <t>Phoenix</t>
+  </si>
+  <si>
+    <t>Ash</t>
+  </si>
+  <si>
+    <t>Eclipse</t>
+  </si>
+  <si>
+    <t>Whisper</t>
+  </si>
+  <si>
+    <t>Dancer</t>
+  </si>
+  <si>
+    <t>Skydancer</t>
+  </si>
+  <si>
+    <t>Sunset</t>
+  </si>
+  <si>
+    <t>Dakota</t>
+  </si>
+  <si>
+    <t>Mustang</t>
+  </si>
+  <si>
+    <t>Breeze</t>
+  </si>
+  <si>
+    <t>Mirage</t>
+  </si>
+  <si>
+    <t>Meadow</t>
+  </si>
+  <si>
+    <t>Chestnut</t>
+  </si>
+  <si>
+    <t>Flicka</t>
+  </si>
+  <si>
+    <t>Serenade</t>
+  </si>
+  <si>
+    <t>Aria</t>
+  </si>
+  <si>
+    <t>Harmony</t>
+  </si>
+  <si>
+    <t>Melody</t>
+  </si>
+  <si>
+    <t>Celeste</t>
+  </si>
+  <si>
+    <t>Ranger</t>
+  </si>
+  <si>
+    <t>Raven</t>
+  </si>
+  <si>
+    <t>Sterling</t>
+  </si>
+  <si>
+    <t>Dusk</t>
+  </si>
+  <si>
+    <t>Dawn</t>
+  </si>
+  <si>
+    <t>Duststorm</t>
+  </si>
+  <si>
+    <t>Buck</t>
+  </si>
+  <si>
+    <t>Bluebell</t>
+  </si>
+  <si>
+    <t>Peach</t>
+  </si>
+  <si>
+    <t>Sundance</t>
+  </si>
+  <si>
+    <t>Flare</t>
+  </si>
+  <si>
+    <t>Aspen</t>
+  </si>
+  <si>
+    <t>Whinny</t>
+  </si>
+  <si>
+    <t>Bramble</t>
+  </si>
+  <si>
+    <t>Cedar</t>
+  </si>
+  <si>
+    <t>Birch</t>
+  </si>
+  <si>
+    <t>Stormcloud</t>
+  </si>
+  <si>
+    <t>Tempest</t>
+  </si>
+  <si>
+    <t>Magic</t>
+  </si>
+  <si>
+    <t>Charm</t>
+  </si>
+  <si>
+    <t>Fable</t>
+  </si>
+  <si>
+    <t>Legend</t>
+  </si>
+  <si>
+    <t>Honor</t>
+  </si>
+  <si>
+    <t>Justice</t>
+  </si>
+  <si>
+    <t>Liberty</t>
+  </si>
+  <si>
+    <t>Valor</t>
+  </si>
+  <si>
+    <t>Noble</t>
+  </si>
+  <si>
+    <t>Patriot</t>
+  </si>
+  <si>
+    <t>Rider</t>
+  </si>
+  <si>
+    <t>Wrangler</t>
+  </si>
+  <si>
+    <t>Gale</t>
+  </si>
+  <si>
+    <t>Windwalker</t>
+  </si>
+  <si>
+    <t>Rain</t>
+  </si>
+  <si>
+    <t>Cloudburst</t>
+  </si>
+  <si>
+    <t>Sky</t>
+  </si>
+  <si>
+    <t>North</t>
+  </si>
+  <si>
+    <t>Snowy</t>
+  </si>
+  <si>
+    <t>Crystal</t>
+  </si>
+  <si>
+    <t>Pearl</t>
+  </si>
+  <si>
+    <t>Onyx</t>
+  </si>
+  <si>
+    <t>Obsidian</t>
+  </si>
+  <si>
+    <t>Flint</t>
+  </si>
+  <si>
+    <t>Quartz</t>
+  </si>
+  <si>
+    <t>Topaz</t>
+  </si>
+  <si>
+    <t>Coral</t>
+  </si>
+  <si>
+    <t>Sierra</t>
+  </si>
+  <si>
+    <t>Autumn</t>
+  </si>
+  <si>
+    <t>Harvest</t>
+  </si>
+  <si>
+    <t>Berry</t>
+  </si>
+  <si>
+    <t>Dewdrop</t>
+  </si>
+  <si>
+    <t>Thistle</t>
+  </si>
+  <si>
+    <t>Wildfire</t>
+  </si>
+  <si>
+    <t>Rogue</t>
+  </si>
+  <si>
+    <t>Rebel</t>
+  </si>
+  <si>
+    <t>Valkyrie</t>
+  </si>
+  <si>
+    <t>Athena</t>
+  </si>
+  <si>
+    <t>Hera</t>
+  </si>
+  <si>
+    <t>Artemis</t>
+  </si>
+  <si>
+    <t>Hermes</t>
+  </si>
+  <si>
+    <t>Poseidon</t>
+  </si>
+  <si>
+    <t>Ares</t>
+  </si>
+  <si>
+    <t>Hades</t>
+  </si>
+  <si>
+    <t>Titan</t>
+  </si>
+  <si>
+    <t>Atlas</t>
+  </si>
+  <si>
+    <t>Orion</t>
+  </si>
+  <si>
+    <t>Pegasus</t>
+  </si>
+  <si>
+    <t>Centaur</t>
+  </si>
+  <si>
+    <t>Chiron</t>
+  </si>
+  <si>
+    <t>Echohoof</t>
+  </si>
+  <si>
+    <t>Windmane</t>
+  </si>
+  <si>
+    <t>Thunderstep</t>
+  </si>
+  <si>
+    <t>Starfire</t>
+  </si>
+  <si>
+    <t>Ashmane</t>
+  </si>
+  <si>
+    <t>River</t>
+  </si>
+  <si>
+    <t>Glacier</t>
+  </si>
+  <si>
+    <t>Tundra</t>
+  </si>
+  <si>
+    <t>Everest</t>
+  </si>
+  <si>
+    <t>Snowcap</t>
+  </si>
+  <si>
+    <t>Boulder</t>
+  </si>
+  <si>
+    <t>Summit</t>
+  </si>
+  <si>
+    <t>Cliff</t>
+  </si>
+  <si>
+    <t>Valley</t>
+  </si>
+  <si>
+    <t>Ridge</t>
+  </si>
+  <si>
+    <t>Brook</t>
+  </si>
+  <si>
+    <t>Stream</t>
+  </si>
+  <si>
+    <t>Delta</t>
+  </si>
+  <si>
+    <t>Ocean</t>
+  </si>
+  <si>
+    <t>Marine</t>
+  </si>
+  <si>
+    <t>Coralbay</t>
+  </si>
+  <si>
+    <t>Shell</t>
+  </si>
+  <si>
+    <t>Pearldust</t>
+  </si>
+  <si>
+    <t>Dolphin</t>
+  </si>
+  <si>
+    <t>Seabreeze</t>
+  </si>
+  <si>
+    <t>Wave</t>
+  </si>
+  <si>
+    <t>Tide</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>Harbor</t>
+  </si>
+  <si>
+    <t>Captain</t>
+  </si>
+  <si>
+    <t>Voyager</t>
+  </si>
+  <si>
+    <t>Navigator</t>
+  </si>
+  <si>
+    <t>Sailor</t>
+  </si>
+  <si>
+    <t>Drifter</t>
+  </si>
+  <si>
+    <t>Gypsy</t>
+  </si>
+  <si>
+    <t>Nomad</t>
+  </si>
+  <si>
+    <t>Trailblazer</t>
+  </si>
+  <si>
+    <t>Pioneer</t>
+  </si>
+  <si>
+    <t>Seeker</t>
+  </si>
+  <si>
+    <t>Quest</t>
+  </si>
+  <si>
+    <t>Journey</t>
+  </si>
+  <si>
+    <t>Adventure</t>
+  </si>
+  <si>
+    <t>Explorer</t>
+  </si>
+  <si>
+    <t>Wanderer</t>
+  </si>
+  <si>
+    <t>Freedom</t>
+  </si>
+  <si>
+    <t>Falcon</t>
+  </si>
+  <si>
+    <t>Hawk</t>
+  </si>
+  <si>
+    <t>Eagle</t>
+  </si>
+  <si>
+    <t>Vortex</t>
+  </si>
+  <si>
+    <t>Blizzard</t>
+  </si>
+  <si>
+    <t>Icicle</t>
+  </si>
+  <si>
+    <t>Frostbite</t>
+  </si>
+  <si>
+    <t>Winter</t>
+  </si>
+  <si>
+    <t>Snowstorm</t>
+  </si>
+  <si>
+    <t>Crystalhoof</t>
+  </si>
+  <si>
+    <t>Moonlight</t>
+  </si>
+  <si>
+    <t>Starfall</t>
+  </si>
+  <si>
+    <t>Novaheart</t>
+  </si>
+  <si>
+    <t>Shimmer</t>
+  </si>
+  <si>
+    <t>Glow</t>
+  </si>
+  <si>
+    <t>Radiance</t>
+  </si>
+  <si>
+    <t>Aurora</t>
+  </si>
+  <si>
+    <t>Comettail</t>
+  </si>
+  <si>
+    <t>Spark</t>
+  </si>
+  <si>
+    <t>Ember</t>
+  </si>
+  <si>
+    <t>Ignite</t>
+  </si>
+  <si>
+    <t>Kindle</t>
+  </si>
+  <si>
+    <t>Inferno</t>
+  </si>
+  <si>
+    <t>Firefly</t>
+  </si>
+  <si>
+    <t>Sunray</t>
+  </si>
+  <si>
+    <t>Goldrush</t>
+  </si>
+  <si>
+    <t>Bronco</t>
+  </si>
+  <si>
+    <t>Beau</t>
+  </si>
+  <si>
+    <t>Bear</t>
+  </si>
+  <si>
+    <t>Ruckus</t>
+  </si>
+  <si>
+    <t>Radar</t>
+  </si>
+  <si>
+    <t>Snappy</t>
+  </si>
+  <si>
+    <t>Pickle</t>
+  </si>
+  <si>
+    <t>Otis</t>
+  </si>
+  <si>
+    <t>Remy</t>
+  </si>
+  <si>
+    <t>Maverick</t>
+  </si>
+  <si>
+    <t>Whiskey</t>
+  </si>
+  <si>
+    <t>Apollo</t>
+  </si>
+  <si>
+    <t>Chance</t>
+  </si>
+  <si>
+    <t>Marley</t>
+  </si>
+  <si>
+    <t>Rover</t>
+  </si>
+  <si>
+    <t>Buddy</t>
+  </si>
+  <si>
+    <t>Claws</t>
+  </si>
+  <si>
+    <t>Jax</t>
+  </si>
+  <si>
+    <t>Charlie</t>
+  </si>
+  <si>
+    <t>Sammy</t>
+  </si>
+  <si>
+    <t>Brody</t>
+  </si>
+  <si>
+    <t>Czar</t>
+  </si>
+  <si>
+    <t>Zeke</t>
+  </si>
+  <si>
+    <t>Grover</t>
+  </si>
+  <si>
+    <t>Widget</t>
+  </si>
+  <si>
+    <t>Fergus</t>
+  </si>
+  <si>
+    <t>Oscar</t>
+  </si>
+  <si>
+    <t>Major</t>
+  </si>
+  <si>
+    <t>Teddy</t>
+  </si>
+  <si>
+    <t>Jet</t>
+  </si>
+  <si>
+    <t>Griffin</t>
+  </si>
+  <si>
+    <t>Gunner</t>
+  </si>
+  <si>
+    <t>Elmo</t>
+  </si>
+  <si>
+    <t>Murphy</t>
+  </si>
+  <si>
+    <t>Zappa</t>
+  </si>
+  <si>
+    <t>Jack</t>
+  </si>
+  <si>
+    <t>Bandit</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Marshmallow</t>
+  </si>
+  <si>
+    <t>Doogie</t>
+  </si>
+  <si>
+    <t>Snort</t>
+  </si>
+  <si>
+    <t>Louie</t>
+  </si>
+  <si>
+    <t>Tankster</t>
+  </si>
+  <si>
+    <t>Howler</t>
+  </si>
+  <si>
+    <t>Hank</t>
+  </si>
+  <si>
+    <t>Bruce</t>
+  </si>
+  <si>
+    <t>Buster</t>
+  </si>
+  <si>
+    <t>Moose</t>
+  </si>
+  <si>
+    <t>Munchkin</t>
+  </si>
+  <si>
+    <t>Ty</t>
+  </si>
+  <si>
+    <t>George</t>
+  </si>
+  <si>
+    <t>Corky</t>
+  </si>
+  <si>
+    <t>Porter</t>
+  </si>
+  <si>
+    <t>Prince</t>
+  </si>
+  <si>
+    <t>Rolo</t>
+  </si>
+  <si>
+    <t>Zorro</t>
+  </si>
+  <si>
+    <t>Yogi</t>
+  </si>
+  <si>
+    <t>Tanky</t>
+  </si>
+  <si>
+    <t>Mac</t>
+  </si>
+  <si>
+    <t>Winston</t>
+  </si>
+  <si>
+    <t>Toby</t>
+  </si>
+  <si>
+    <t>Bentley</t>
+  </si>
+  <si>
+    <t>Dexter</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Diesel</t>
+  </si>
+  <si>
+    <t>Peanut</t>
+  </si>
+  <si>
+    <t>Reggie</t>
+  </si>
+  <si>
+    <t>Rex</t>
+  </si>
+  <si>
+    <t>Frankie</t>
+  </si>
+  <si>
+    <t>Trapper</t>
+  </si>
+  <si>
+    <t>Skippy</t>
+  </si>
+  <si>
+    <t>TurboDog</t>
+  </si>
+  <si>
+    <t>Benny</t>
+  </si>
+  <si>
+    <t>Henry</t>
+  </si>
+  <si>
+    <t>Jake</t>
+  </si>
+  <si>
+    <t>Chester</t>
+  </si>
+  <si>
+    <t>Snuff</t>
+  </si>
+  <si>
+    <t>Bruno</t>
+  </si>
+  <si>
+    <t>Nico</t>
+  </si>
+  <si>
+    <t>Copper</t>
+  </si>
+  <si>
+    <t>Dash</t>
+  </si>
+  <si>
+    <t>Mack</t>
+  </si>
+  <si>
+    <t>Bailey</t>
+  </si>
+  <si>
+    <t>Thor</t>
+  </si>
+  <si>
+    <t>Chico</t>
+  </si>
+  <si>
+    <t>Riley</t>
+  </si>
+  <si>
+    <t>Boomer</t>
+  </si>
+  <si>
+    <t>Sparky</t>
+  </si>
+  <si>
+    <t>Barney</t>
+  </si>
+  <si>
+    <t>Blaze</t>
+  </si>
+  <si>
+    <t>Barkley</t>
+  </si>
+  <si>
+    <t>Bubba</t>
+  </si>
+  <si>
+    <t>Rambo</t>
+  </si>
+  <si>
+    <t>Crumpet</t>
+  </si>
+  <si>
+    <t>Taz</t>
+  </si>
+  <si>
+    <t>Zeus</t>
+  </si>
+  <si>
+    <t>Churro</t>
+  </si>
+  <si>
+    <t>Rocco</t>
+  </si>
+  <si>
+    <t>Hugo</t>
+  </si>
+  <si>
+    <t>Pongo</t>
+  </si>
+  <si>
+    <t>Bullet</t>
+  </si>
+  <si>
+    <t>Spencer</t>
+  </si>
+  <si>
+    <t>Harley</t>
+  </si>
+  <si>
+    <t>Zoomer</t>
+  </si>
+  <si>
+    <t>Ace</t>
+  </si>
+  <si>
+    <t>Chomp</t>
+  </si>
+  <si>
+    <t>Brutus</t>
+  </si>
+  <si>
+    <t>Wally</t>
+  </si>
+  <si>
+    <t>Jackson</t>
+  </si>
+  <si>
+    <t>Joey</t>
+  </si>
+  <si>
+    <t>Toffee</t>
+  </si>
+  <si>
+    <t>Mop</t>
+  </si>
+  <si>
+    <t>Fido</t>
+  </si>
+  <si>
+    <t>Chief</t>
+  </si>
+  <si>
+    <t>Scouty</t>
+  </si>
+  <si>
+    <t>Canyon</t>
+  </si>
+  <si>
+    <t>Woofie</t>
+  </si>
+  <si>
+    <t>Kobe</t>
+  </si>
+  <si>
+    <t>Brisket</t>
+  </si>
+  <si>
+    <t>Thornton</t>
+  </si>
+  <si>
+    <t>Cody</t>
+  </si>
+  <si>
+    <t>Cletus</t>
+  </si>
+  <si>
+    <t>Zuzu</t>
+  </si>
+  <si>
+    <t>Wags</t>
+  </si>
+  <si>
+    <t>Turbo</t>
+  </si>
+  <si>
+    <t>Hunter</t>
+  </si>
+  <si>
+    <t>Samson</t>
+  </si>
+  <si>
+    <t>Einstein</t>
+  </si>
+  <si>
+    <t>Baxter</t>
+  </si>
+  <si>
+    <t>Finn</t>
+  </si>
+  <si>
+    <t>Tank</t>
+  </si>
+  <si>
+    <t>Tyson</t>
+  </si>
+  <si>
+    <t>Sarge</t>
+  </si>
+  <si>
+    <t>Neo</t>
+  </si>
+  <si>
+    <t>Archie</t>
+  </si>
+  <si>
+    <t>Bolt</t>
+  </si>
+  <si>
+    <t>Alfie</t>
+  </si>
+  <si>
+    <t>Clifford</t>
+  </si>
+  <si>
+    <t>Benji</t>
+  </si>
+  <si>
+    <t>Dallas</t>
+  </si>
+  <si>
+    <t>Romeo</t>
+  </si>
+  <si>
+    <t>Roscoe</t>
+  </si>
+  <si>
+    <t>Dino</t>
+  </si>
+  <si>
+    <t>Crinkle</t>
+  </si>
+  <si>
+    <t>Chompers</t>
+  </si>
+  <si>
+    <t>Monty</t>
+  </si>
+  <si>
+    <t>Dozer</t>
+  </si>
+  <si>
+    <t>Nash</t>
+  </si>
+  <si>
+    <t>Chase</t>
+  </si>
+  <si>
+    <t>Bearclaw</t>
+  </si>
+  <si>
+    <t>Cooper</t>
+  </si>
+  <si>
+    <t>Bongo</t>
+  </si>
+  <si>
+    <t>Callie</t>
+  </si>
+  <si>
+    <t>Dusty</t>
+  </si>
+  <si>
+    <t>Nugget</t>
+  </si>
+  <si>
+    <t>Pixie</t>
+  </si>
+  <si>
+    <t>Popcorn</t>
+  </si>
+  <si>
+    <t>Chloe</t>
+  </si>
+  <si>
+    <t>Mango</t>
+  </si>
+  <si>
+    <t>Galaxy</t>
+  </si>
+  <si>
+    <t>Snuffy</t>
+  </si>
+  <si>
+    <t>Boots</t>
+  </si>
+  <si>
+    <t>Rusty</t>
+  </si>
+  <si>
+    <t>Twilight</t>
+  </si>
+  <si>
+    <t>Marble</t>
+  </si>
+  <si>
+    <t>Scooter</t>
+  </si>
+  <si>
+    <t>Ziggy</t>
+  </si>
+  <si>
+    <t>Marzipan</t>
+  </si>
+  <si>
+    <t>Fizz</t>
+  </si>
+  <si>
+    <t>Puma</t>
+  </si>
+  <si>
+    <t>Buttons</t>
+  </si>
+  <si>
+    <t>Jazz</t>
+  </si>
+  <si>
+    <t>Mittens Jr.</t>
+  </si>
+  <si>
+    <t>Angel</t>
+  </si>
+  <si>
+    <t>Cloudy</t>
+  </si>
+  <si>
+    <t>Sparkle</t>
+  </si>
+  <si>
+    <t>Midnight</t>
+  </si>
+  <si>
+    <t>Cricket</t>
+  </si>
+  <si>
+    <t>Doodle</t>
+  </si>
+  <si>
+    <t>Inky</t>
+  </si>
+  <si>
+    <t>Velcro</t>
+  </si>
+  <si>
+    <t>Moonbeam</t>
+  </si>
+  <si>
+    <t>Mochi</t>
+  </si>
+  <si>
+    <t>Freckles</t>
+  </si>
+  <si>
+    <t>Sir Pounce</t>
+  </si>
+  <si>
+    <t>Skye</t>
+  </si>
+  <si>
+    <t>Tiger</t>
+  </si>
+  <si>
+    <t>Snickles</t>
+  </si>
+  <si>
+    <t>Pudding</t>
+  </si>
+  <si>
+    <t>Spooky</t>
+  </si>
+  <si>
+    <t>Glitch</t>
+  </si>
+  <si>
+    <t>Waffle</t>
+  </si>
+  <si>
+    <t>Patches</t>
+  </si>
+  <si>
+    <t>Zephyr</t>
+  </si>
+  <si>
+    <t>Garfield</t>
+  </si>
+  <si>
+    <t>Nimbus</t>
+  </si>
+  <si>
+    <t>Cinnamon</t>
+  </si>
+  <si>
+    <t>Strudel</t>
+  </si>
+  <si>
+    <t>Bubblegum</t>
+  </si>
+  <si>
+    <t>Tinkerbell</t>
+  </si>
+  <si>
+    <t>Binx</t>
+  </si>
+  <si>
+    <t>Raisin</t>
+  </si>
+  <si>
+    <t>Echo</t>
+  </si>
+  <si>
+    <t>Snickers</t>
+  </si>
+  <si>
+    <t>Pickles</t>
+  </si>
+  <si>
+    <t>Furball</t>
+  </si>
+  <si>
+    <t>Captain Whiskers</t>
+  </si>
+  <si>
+    <t>Taffy</t>
+  </si>
+  <si>
+    <t>Amber</t>
+  </si>
+  <si>
+    <t>Stormy</t>
+  </si>
+  <si>
+    <t>Snickerdoodle</t>
+  </si>
+  <si>
+    <t>Twinkle</t>
+  </si>
+  <si>
+    <t>Neptune</t>
+  </si>
+  <si>
+    <t>Frost</t>
+  </si>
+  <si>
+    <t>Bubbles</t>
+  </si>
+  <si>
+    <t>Sophie</t>
+  </si>
+  <si>
+    <t>Rascal</t>
+  </si>
+  <si>
+    <t>Zelda</t>
+  </si>
+  <si>
+    <t>Queen Fluff</t>
+  </si>
+  <si>
+    <t>Salem</t>
+  </si>
+  <si>
+    <t>Roo</t>
+  </si>
+  <si>
+    <t>Rumble</t>
+  </si>
+  <si>
+    <t>Cabbage</t>
+  </si>
+  <si>
+    <t>Pepper</t>
+  </si>
+  <si>
+    <t>Meeko</t>
+  </si>
+  <si>
+    <t>Fudge</t>
+  </si>
+  <si>
+    <t>Flick</t>
+  </si>
+  <si>
+    <t>Snowflake</t>
+  </si>
+  <si>
+    <t>Whiskers</t>
+  </si>
+  <si>
+    <t>Tango</t>
+  </si>
+  <si>
+    <t>Tinker</t>
+  </si>
+  <si>
+    <t>Bingo</t>
+  </si>
+  <si>
+    <t>Whimsy</t>
+  </si>
+  <si>
+    <t>Taffeta</t>
+  </si>
+  <si>
+    <t>Tofu</t>
+  </si>
+  <si>
+    <t>Ashes</t>
+  </si>
+  <si>
+    <t>Blue</t>
+  </si>
+  <si>
+    <t>Apricot</t>
+  </si>
+  <si>
+    <t>Muffin</t>
+  </si>
+  <si>
+    <t>Mocha</t>
+  </si>
+  <si>
+    <t>Smokey</t>
+  </si>
+  <si>
+    <t>Jellybean</t>
+  </si>
+  <si>
+    <t>Orbit</t>
+  </si>
+  <si>
+    <t>Gizmo</t>
+  </si>
+  <si>
+    <t>Gingersnap</t>
+  </si>
+  <si>
+    <t>Quinn</t>
+  </si>
+  <si>
+    <t>Blossom</t>
+  </si>
+  <si>
+    <t>Pumpkin</t>
+  </si>
+  <si>
+    <t>Wisp</t>
+  </si>
+  <si>
+    <t>Pumpkinseed</t>
+  </si>
+  <si>
+    <t>Taco</t>
+  </si>
+  <si>
+    <t>Loki</t>
+  </si>
+  <si>
+    <t>Banana</t>
+  </si>
+  <si>
+    <t>Nacho</t>
+  </si>
+  <si>
+    <t>Socks</t>
+  </si>
+  <si>
+    <t>Checkers</t>
+  </si>
+  <si>
+    <t>Mittens</t>
+  </si>
+  <si>
+    <t>Meowser</t>
+  </si>
+  <si>
+    <t>Sprite</t>
+  </si>
+  <si>
+    <t>Lollipop</t>
+  </si>
+  <si>
+    <t>Fuzzy</t>
+  </si>
+  <si>
+    <t>Sundae</t>
+  </si>
+  <si>
+    <t>Fang</t>
+  </si>
+  <si>
+    <t>Olive</t>
+  </si>
+  <si>
+    <t>Lucky</t>
+  </si>
+  <si>
+    <t>Velvet</t>
+  </si>
+  <si>
+    <t>Taro</t>
+  </si>
+  <si>
+    <t>Smudge</t>
+  </si>
+  <si>
+    <t>Shadowfax</t>
+  </si>
+  <si>
+    <t>Whiskerella</t>
+  </si>
+  <si>
+    <t>Sunbeam</t>
+  </si>
+  <si>
+    <t>Pebbles</t>
+  </si>
+  <si>
+    <t>Piper</t>
+  </si>
+  <si>
+    <t>Boo</t>
+  </si>
+  <si>
+    <t>Tigger</t>
+  </si>
+  <si>
+    <t>Treacle</t>
+  </si>
+  <si>
+    <t>Cactus</t>
+  </si>
+  <si>
+    <t>Sprinkles</t>
+  </si>
+  <si>
+    <t>Basil</t>
+  </si>
+  <si>
+    <t>Truffle</t>
+  </si>
+  <si>
+    <t>Sushi</t>
+  </si>
+  <si>
+    <t>Figaro</t>
+  </si>
+  <si>
+    <t>Shadow</t>
+  </si>
+  <si>
+    <t>Cupcake</t>
+  </si>
+  <si>
+    <t>Elvis</t>
+  </si>
+  <si>
+    <t>Cosmo</t>
+  </si>
+  <si>
+    <t>Sassy</t>
+  </si>
+  <si>
+    <t>Tinsel</t>
+  </si>
+  <si>
+    <t>Cleo</t>
+  </si>
+  <si>
+    <t>Sable</t>
+  </si>
+  <si>
+    <t>Fluffy</t>
+  </si>
+  <si>
+    <t>Clover</t>
+  </si>
+  <si>
+    <t>Yuki</t>
+  </si>
+  <si>
+    <t>Cloud</t>
+  </si>
+  <si>
+    <t>Dumpling</t>
+  </si>
+  <si>
+    <t>Toast</t>
+  </si>
+  <si>
+    <t>Swirl</t>
+  </si>
+  <si>
+    <t>Glimmer</t>
+  </si>
+  <si>
+    <t>S'mores</t>
+  </si>
+  <si>
+    <t>Goose</t>
+  </si>
+  <si>
+    <t>Taffytoe</t>
+  </si>
+  <si>
+    <t>Skittles</t>
+  </si>
+  <si>
+    <t>Kiki</t>
+  </si>
+  <si>
+    <t>Tuna</t>
+  </si>
+  <si>
+    <t>Nova</t>
+  </si>
+  <si>
+    <t>Tater</t>
+  </si>
+  <si>
+    <t>Pluto</t>
+  </si>
+  <si>
+    <t>Juno</t>
+  </si>
+  <si>
+    <t>Snowball</t>
+  </si>
+  <si>
+    <t>Arlozi</t>
+  </si>
+  <si>
+    <t>Binksy</t>
+  </si>
+  <si>
+    <t>Clyver</t>
+  </si>
+  <si>
+    <t>Drimble</t>
+  </si>
+  <si>
+    <t>Azari</t>
+  </si>
+  <si>
+    <t>Breezi</t>
+  </si>
+  <si>
+    <t>Corvoo</t>
+  </si>
+  <si>
+    <t>Draxil</t>
+  </si>
+  <si>
+    <t>Alumi</t>
+  </si>
+  <si>
+    <t>Bronti</t>
+  </si>
+  <si>
+    <t>Clixie</t>
+  </si>
+  <si>
+    <t>Duzzle</t>
+  </si>
+  <si>
+    <t>Avenzi</t>
+  </si>
+  <si>
+    <t>Blorix</t>
+  </si>
+  <si>
+    <t>Cyka</t>
+  </si>
+  <si>
+    <t>Drexel</t>
+  </si>
+  <si>
+    <t>Audro</t>
+  </si>
+  <si>
+    <t>Blini</t>
+  </si>
+  <si>
+    <t>Cupra</t>
+  </si>
+  <si>
+    <t>Dinki</t>
+  </si>
+  <si>
+    <t>Enoza</t>
+  </si>
+  <si>
+    <t>Flarn</t>
+  </si>
+  <si>
+    <t>Glinko</t>
+  </si>
+  <si>
+    <t>Hesper</t>
+  </si>
+  <si>
+    <t>Evoli</t>
+  </si>
+  <si>
+    <t>Fizzi</t>
+  </si>
+  <si>
+    <t>Gorbix</t>
+  </si>
+  <si>
+    <t>Haxor</t>
+  </si>
+  <si>
+    <t>Emberoo</t>
+  </si>
+  <si>
+    <t>Flitzi</t>
+  </si>
+  <si>
+    <t>Glimmerix</t>
+  </si>
+  <si>
+    <t>Huzzit</t>
+  </si>
+  <si>
+    <t>Elavo</t>
+  </si>
+  <si>
+    <t>Fentra</t>
+  </si>
+  <si>
+    <t>Grizzix</t>
+  </si>
+  <si>
+    <t>Harkel</t>
+  </si>
+  <si>
+    <t>Endro</t>
+  </si>
+  <si>
+    <t>Floopa</t>
+  </si>
+  <si>
+    <t>Grexa</t>
+  </si>
+  <si>
+    <t>Huzzle</t>
+  </si>
+  <si>
+    <t>Iffo</t>
+  </si>
+  <si>
+    <t>Jorli</t>
+  </si>
+  <si>
+    <t>Kizmo</t>
+  </si>
+  <si>
+    <t>Lenza</t>
+  </si>
+  <si>
+    <t>Ixa</t>
+  </si>
+  <si>
+    <t>Jibble</t>
+  </si>
+  <si>
+    <t>Kalzi</t>
+  </si>
+  <si>
+    <t>Lirza</t>
+  </si>
+  <si>
+    <t>Illumi</t>
+  </si>
+  <si>
+    <t>Jexra</t>
+  </si>
+  <si>
+    <t>Krawzi</t>
+  </si>
+  <si>
+    <t>Lumera</t>
+  </si>
+  <si>
+    <t>Igrin</t>
+  </si>
+  <si>
+    <t>Jorza</t>
+  </si>
+  <si>
+    <t>Krindle</t>
+  </si>
+  <si>
+    <t>Lapi</t>
+  </si>
+  <si>
+    <t>Izoro</t>
+  </si>
+  <si>
+    <t>Juxzi</t>
+  </si>
+  <si>
+    <t>Klexi</t>
+  </si>
+  <si>
+    <t>Lurka</t>
+  </si>
+  <si>
+    <t>Marnix</t>
+  </si>
+  <si>
+    <t>Nuppo</t>
+  </si>
+  <si>
+    <t>Oxi</t>
+  </si>
+  <si>
+    <t>Ploofa</t>
+  </si>
+  <si>
+    <t>Meebi</t>
+  </si>
+  <si>
+    <t>Naza</t>
+  </si>
+  <si>
+    <t>Oviri</t>
+  </si>
+  <si>
+    <t>Pizzle</t>
+  </si>
+  <si>
+    <t>Murko</t>
+  </si>
+  <si>
+    <t>Nyll</t>
+  </si>
+  <si>
+    <t>Orbyx</t>
+  </si>
+  <si>
+    <t>Plimza</t>
+  </si>
+  <si>
+    <t>Mavza</t>
+  </si>
+  <si>
+    <t>Nixi</t>
+  </si>
+  <si>
+    <t>Oxari</t>
+  </si>
+  <si>
+    <t>Punglo</t>
+  </si>
+  <si>
+    <t>Mozi</t>
+  </si>
+  <si>
+    <t>Nozzle</t>
+  </si>
+  <si>
+    <t>Ovix</t>
+  </si>
+  <si>
+    <t>Padrin</t>
+  </si>
+  <si>
+    <t>Quirlo</t>
+  </si>
+  <si>
+    <t>Rivzo</t>
+  </si>
+  <si>
+    <t>Synthra</t>
+  </si>
+  <si>
+    <t>Tralix</t>
+  </si>
+  <si>
+    <t>Qilza</t>
+  </si>
+  <si>
+    <t>Ropzi</t>
+  </si>
+  <si>
+    <t>Sweeny</t>
+  </si>
+  <si>
+    <t>Trixil</t>
+  </si>
+  <si>
+    <t>Quimbo</t>
+  </si>
+  <si>
+    <t>Rilza</t>
+  </si>
+  <si>
+    <t>Stravi</t>
+  </si>
+  <si>
+    <t>Torba</t>
+  </si>
+  <si>
+    <t>Quarn</t>
+  </si>
+  <si>
+    <t>Rembo</t>
+  </si>
+  <si>
+    <t>Swiggy</t>
+  </si>
+  <si>
+    <t>Tembri</t>
+  </si>
+  <si>
+    <t>Quenxa</t>
+  </si>
+  <si>
+    <t>Rozza</t>
+  </si>
+  <si>
+    <t>Skreezi</t>
+  </si>
+  <si>
+    <t>Tovin</t>
+  </si>
+  <si>
+    <t>Umbrix</t>
+  </si>
+  <si>
+    <t>Vintza</t>
+  </si>
+  <si>
+    <t>Woxy</t>
+  </si>
+  <si>
+    <t>Xyloxi</t>
+  </si>
+  <si>
+    <t>Ummi</t>
+  </si>
+  <si>
+    <t>Vixol</t>
+  </si>
+  <si>
+    <t>Whirzo</t>
+  </si>
+  <si>
+    <t>Xari</t>
+  </si>
+  <si>
+    <t>Uloro</t>
+  </si>
+  <si>
+    <t>Veeza</t>
+  </si>
+  <si>
+    <t>Wuffi</t>
+  </si>
+  <si>
+    <t>Xindra</t>
+  </si>
+  <si>
+    <t>Urgol</t>
+  </si>
+  <si>
+    <t>Volma</t>
+  </si>
+  <si>
+    <t>Wenvix</t>
+  </si>
+  <si>
+    <t>Xoona</t>
+  </si>
+  <si>
+    <t>Ublin</t>
+  </si>
+  <si>
+    <t>Vondri</t>
+  </si>
+  <si>
+    <t>Wiblo</t>
+  </si>
+  <si>
+    <t>Xappo</t>
+  </si>
+  <si>
+    <t>Umblee</t>
+  </si>
+  <si>
+    <t>Vixra</t>
+  </si>
+  <si>
+    <t>Wobzi</t>
+  </si>
+  <si>
+    <t>Xano</t>
+  </si>
+  <si>
+    <t>Uzzo</t>
+  </si>
+  <si>
+    <t>Vyrka</t>
+  </si>
+  <si>
+    <t>Wrenzy</t>
+  </si>
+  <si>
+    <t>Xenji</t>
+  </si>
+  <si>
+    <t>Uqari</t>
+  </si>
+  <si>
+    <t>Vromo</t>
+  </si>
+  <si>
+    <t>Wintra</t>
+  </si>
+  <si>
+    <t>Xetti</t>
+  </si>
+  <si>
+    <t>Ulgo</t>
+  </si>
+  <si>
+    <t>Vizzi</t>
+  </si>
+  <si>
+    <t>Wimzo</t>
+  </si>
+  <si>
+    <t>Xukko</t>
+  </si>
+  <si>
+    <t>Uxari</t>
+  </si>
+  <si>
+    <t>Vaelzi</t>
+  </si>
+  <si>
+    <t>Wixlo</t>
+  </si>
+  <si>
+    <t>Xemee</t>
+  </si>
+  <si>
+    <t>Zeffi</t>
+  </si>
+  <si>
+    <t>Quibbo</t>
+  </si>
+  <si>
+    <t>Snirx</t>
+  </si>
+  <si>
+    <t>Yindle</t>
+  </si>
+  <si>
+    <t>Zivro</t>
+  </si>
+  <si>
+    <t>Glupzy</t>
+  </si>
+  <si>
+    <t>Tervi</t>
+  </si>
+  <si>
+    <t>Phibzi</t>
+  </si>
+  <si>
+    <t>Jamboz</t>
+  </si>
+  <si>
+    <t>Kreeja</t>
+  </si>
+  <si>
+    <t>Brimla</t>
+  </si>
+  <si>
+    <t>Zopta</t>
+  </si>
+  <si>
+    <t>Xirni</t>
+  </si>
+  <si>
+    <t>Olvix</t>
+  </si>
+  <si>
+    <t>Yozra</t>
+  </si>
+  <si>
+    <t>Drivna</t>
+  </si>
+  <si>
+    <t>Fenzo</t>
+  </si>
+  <si>
+    <t>Vooli</t>
+  </si>
+  <si>
+    <t>Wozra</t>
+  </si>
+  <si>
+    <t>Zenzi</t>
+  </si>
+  <si>
+    <t>Orbix</t>
+  </si>
+  <si>
+    <t>Plumee</t>
+  </si>
+  <si>
+    <t>Narbi</t>
+  </si>
+  <si>
+    <t>Jilza</t>
+  </si>
+  <si>
+    <t>Rumblo</t>
+  </si>
+  <si>
+    <t>Tylki</t>
+  </si>
+  <si>
+    <t>Vuffin</t>
+  </si>
+  <si>
+    <t>Slompa</t>
+  </si>
+  <si>
+    <t>Moolix</t>
+  </si>
+  <si>
+    <t>Clyssa</t>
+  </si>
+  <si>
+    <t>Brubzi</t>
+  </si>
+  <si>
+    <t>Thizzi</t>
+  </si>
+  <si>
+    <t>Quorbi</t>
+  </si>
+  <si>
+    <t>Klinki</t>
+  </si>
+  <si>
+    <t>Trimba</t>
+  </si>
+  <si>
+    <t>Zuvra</t>
+  </si>
+  <si>
+    <t>Yimzi</t>
+  </si>
+  <si>
+    <t>Blorfa</t>
+  </si>
+  <si>
+    <t>Frovi</t>
+  </si>
+  <si>
+    <t>Umbrin</t>
+  </si>
+  <si>
+    <t>Drezzik</t>
+  </si>
+  <si>
+    <t>Vombi</t>
+  </si>
+  <si>
+    <t>Glinksi</t>
+  </si>
+  <si>
+    <t>Wivra</t>
+  </si>
+  <si>
+    <t>Klyra</t>
+  </si>
+  <si>
+    <t>Slorfi</t>
+  </si>
+  <si>
+    <t>Zinkra</t>
+  </si>
+  <si>
+    <t>Clorbi</t>
+  </si>
+  <si>
+    <t>Pranzix</t>
+  </si>
+  <si>
+    <t>Flobee</t>
+  </si>
+  <si>
+    <t>Yirni</t>
+  </si>
+  <si>
+    <t>Gimblo</t>
+  </si>
+  <si>
+    <t>Hexa</t>
+  </si>
+  <si>
+    <t>Voxza</t>
+  </si>
+  <si>
+    <t>Troompa</t>
+  </si>
+  <si>
+    <t>Syli</t>
+  </si>
+  <si>
+    <t>Yozix</t>
+  </si>
+  <si>
+    <t>Gorfla</t>
+  </si>
+  <si>
+    <t>Pumbro</t>
+  </si>
+  <si>
+    <t>Nexra</t>
+  </si>
+  <si>
+    <t>Charlie24</t>
+  </si>
+  <si>
+    <t>Milo19</t>
+  </si>
+  <si>
+    <t>Taffy22</t>
+  </si>
+  <si>
+    <t>Cutie14</t>
+  </si>
+  <si>
+    <t>Cinder14</t>
+  </si>
+  <si>
+    <t>pony10</t>
+  </si>
+  <si>
+    <t>fury7</t>
+  </si>
+  <si>
+    <t>Ryder7</t>
+  </si>
+  <si>
+    <t>Rabbit14</t>
+  </si>
+  <si>
+    <t>Sheep13</t>
   </si>
 </sst>
 </file>
@@ -959,7 +2997,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -969,6 +3007,13 @@
     </font>
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1002,10 +3047,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="186">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1128,11 +3175,75 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 3" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -1434,10 +3545,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J58"/>
+  <dimension ref="A1:J76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1651,7 +3762,7 @@
       <c r="C11" s="61" t="s">
         <v>159</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="131" t="s">
         <v>209</v>
       </c>
       <c r="E11" s="14" t="s">
@@ -1668,7 +3779,7 @@
       <c r="C12" s="62" t="s">
         <v>160</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="132" t="s">
         <v>210</v>
       </c>
       <c r="E12" s="15" t="s">
@@ -1685,7 +3796,7 @@
       <c r="C13" s="63" t="s">
         <v>161</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="137" t="s">
         <v>211</v>
       </c>
       <c r="E13" s="16" t="s">
@@ -1696,13 +3807,13 @@
       <c r="A14" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="125" t="s">
         <v>112</v>
       </c>
       <c r="C14" s="64" t="s">
         <v>162</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="138" t="s">
         <v>212</v>
       </c>
       <c r="E14" s="17" t="s">
@@ -1713,13 +3824,13 @@
       <c r="A15" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="128" t="s">
         <v>113</v>
       </c>
       <c r="C15" s="65" t="s">
         <v>163</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="143" t="s">
         <v>213</v>
       </c>
       <c r="E15" s="18" t="s">
@@ -1730,13 +3841,13 @@
       <c r="A16" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="134" t="s">
         <v>114</v>
       </c>
       <c r="C16" s="66" t="s">
         <v>164</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="144" t="s">
         <v>214</v>
       </c>
       <c r="E16" s="19" t="s">
@@ -1747,13 +3858,13 @@
       <c r="A17" s="72" t="s">
         <v>59</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="140" t="s">
         <v>115</v>
       </c>
       <c r="C17" s="67" t="s">
         <v>165</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="153" t="s">
         <v>215</v>
       </c>
       <c r="E17" s="20" t="s">
@@ -1764,13 +3875,13 @@
       <c r="A18" s="74" t="s">
         <v>60</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="148" t="s">
         <v>116</v>
       </c>
       <c r="C18" s="68" t="s">
         <v>166</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="154" t="s">
         <v>216</v>
       </c>
       <c r="E18" s="21" t="s">
@@ -1781,13 +3892,13 @@
       <c r="A19" s="95" t="s">
         <v>61</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="150" t="s">
         <v>117</v>
       </c>
       <c r="C19" s="69" t="s">
         <v>167</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="163" t="s">
         <v>217</v>
       </c>
       <c r="E19" s="22" t="s">
@@ -1798,13 +3909,13 @@
       <c r="A20" s="96" t="s">
         <v>62</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="160" t="s">
         <v>118</v>
       </c>
       <c r="C20" s="70" t="s">
         <v>168</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="164" t="s">
         <v>218</v>
       </c>
       <c r="E20" s="23" t="s">
@@ -1815,13 +3926,13 @@
       <c r="A21" s="97" t="s">
         <v>63</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="176" t="s">
         <v>119</v>
       </c>
       <c r="C21" s="75" t="s">
         <v>169</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="179" t="s">
         <v>219</v>
       </c>
       <c r="E21" s="24" t="s">
@@ -1838,7 +3949,7 @@
       <c r="C22" s="76" t="s">
         <v>170</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="180" t="s">
         <v>220</v>
       </c>
       <c r="E22" s="25" t="s">
@@ -1880,7 +3991,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="124" t="s">
         <v>67</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -1897,7 +4008,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="126" t="s">
         <v>68</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -1914,109 +4025,109 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="127" t="s">
         <v>69</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="130" t="s">
         <v>175</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>225</v>
       </c>
       <c r="E27" s="82" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="129" t="s">
         <v>70</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="136" t="s">
         <v>176</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>226</v>
       </c>
       <c r="E28" s="83" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="133" t="s">
         <v>71</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="142" t="s">
         <v>177</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>227</v>
       </c>
       <c r="E29" s="84" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="135" t="s">
         <v>72</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="152" t="s">
         <v>178</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>228</v>
       </c>
       <c r="E30" s="85" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="139" t="s">
         <v>73</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="162" t="s">
         <v>179</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>229</v>
       </c>
       <c r="E31" s="86" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="141" t="s">
         <v>74</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="178" t="s">
         <v>180</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>230</v>
       </c>
       <c r="E32" s="87" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="147" t="s">
         <v>75</v>
       </c>
       <c r="B33" s="1" t="s">
@@ -2029,11 +4140,11 @@
         <v>231</v>
       </c>
       <c r="E33" s="88" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="149" t="s">
         <v>76</v>
       </c>
       <c r="B34" s="1" t="s">
@@ -2046,11 +4157,11 @@
         <v>232</v>
       </c>
       <c r="E34" s="89" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="151" t="s">
         <v>77</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -2063,11 +4174,11 @@
         <v>233</v>
       </c>
       <c r="E35" s="90" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="159" t="s">
         <v>78</v>
       </c>
       <c r="B36" s="1" t="s">
@@ -2080,11 +4191,11 @@
         <v>234</v>
       </c>
       <c r="E36" s="91" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="161" t="s">
         <v>79</v>
       </c>
       <c r="B37" s="1" t="s">
@@ -2097,11 +4208,11 @@
         <v>235</v>
       </c>
       <c r="E37" s="92" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="175" t="s">
         <v>80</v>
       </c>
       <c r="B38" s="1" t="s">
@@ -2114,11 +4225,11 @@
         <v>236</v>
       </c>
       <c r="E38" s="93" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="177" t="s">
         <v>81</v>
       </c>
       <c r="B39" s="1" t="s">
@@ -2131,7 +4242,7 @@
         <v>237</v>
       </c>
       <c r="E39" s="94" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
@@ -2148,7 +4259,7 @@
         <v>238</v>
       </c>
       <c r="E40" s="103" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
@@ -2165,7 +4276,7 @@
         <v>239</v>
       </c>
       <c r="E41" s="104" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
@@ -2182,7 +4293,7 @@
         <v>240</v>
       </c>
       <c r="E42" s="105" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
@@ -2199,7 +4310,7 @@
         <v>241</v>
       </c>
       <c r="E43" s="106" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
@@ -2216,7 +4327,7 @@
         <v>242</v>
       </c>
       <c r="E44" s="113" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
@@ -2233,7 +4344,7 @@
         <v>243</v>
       </c>
       <c r="E45" s="114" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
@@ -2250,7 +4361,7 @@
         <v>244</v>
       </c>
       <c r="E46" s="115" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
@@ -2267,7 +4378,7 @@
         <v>245</v>
       </c>
       <c r="E47" s="116" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
@@ -2281,7 +4392,7 @@
         <v>196</v>
       </c>
       <c r="E48" s="117" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
@@ -2295,7 +4406,7 @@
         <v>197</v>
       </c>
       <c r="E49" s="118" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
@@ -2309,7 +4420,7 @@
         <v>198</v>
       </c>
       <c r="E50" s="119" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
@@ -2323,7 +4434,7 @@
         <v>199</v>
       </c>
       <c r="E51" s="120" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
@@ -2331,7 +4442,7 @@
         <v>94</v>
       </c>
       <c r="E52" s="121" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
@@ -2339,7 +4450,7 @@
         <v>95</v>
       </c>
       <c r="E53" s="122" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
@@ -2347,31 +4458,128 @@
         <v>96</v>
       </c>
       <c r="E54" s="123" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="E55" s="1" t="s">
-        <v>278</v>
+      <c r="E55" s="145" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E56" s="1" t="s">
-        <v>279</v>
+      <c r="E56" s="146" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35"/>
+      <c r="E57" s="155" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E58" s="156" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E59" s="157" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E60" s="158" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E61" s="165" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E62" s="166" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E63" s="167" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E64" s="168" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="65" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E65" s="182" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="66" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E66" s="183" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="67" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E67" s="184" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="68" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E68" s="185" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="69" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E69" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="70" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E70" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="71" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E71" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="72" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E72" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="73" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E73" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="74" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E74" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="75" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E75" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="76" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E76" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2382,8 +4590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B6" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2426,7 +4634,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s" s="0">
-        <v>297</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s" s="0">
         <v>29</v>
@@ -2440,7 +4648,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s" s="0">
-        <v>306</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s" s="0">
         <v>29</v>
@@ -2454,151 +4662,2520 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s" s="0">
-        <v>307</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s" s="0">
         <v>29</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>246</v>
-      </c>
-      <c r="D4" t="s" s="0">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" t="s" s="0">
-        <v>282</v>
-      </c>
-      <c r="B5" t="s" s="0">
-        <v>285</v>
-      </c>
-      <c r="C5" t="s" s="0">
-        <v>249</v>
-      </c>
-      <c r="D5" t="s" s="0">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" t="s" s="0">
-        <v>283</v>
-      </c>
-      <c r="B6" t="s" s="0">
-        <v>286</v>
-      </c>
-      <c r="C6" t="s" s="0">
-        <v>248</v>
-      </c>
-      <c r="D6" t="s" s="0">
-        <v>29</v>
-      </c>
-    </row>
+        <v>988</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35"/>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" t="s" s="0">
-        <v>284</v>
-      </c>
-      <c r="B7" t="s" s="0">
-        <v>298</v>
-      </c>
-      <c r="C7" t="s" s="0">
-        <v>247</v>
-      </c>
       <c r="D7" t="s" s="0">
         <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" t="s" s="0">
-        <v>281</v>
-      </c>
-      <c r="B8" t="s" s="0">
-        <v>299</v>
-      </c>
-      <c r="C8" t="s" s="0">
-        <v>29</v>
-      </c>
       <c r="D8" t="s" s="0">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" t="s" s="0">
-        <v>292</v>
-      </c>
-      <c r="C9" t="s" s="0">
-        <v>280</v>
-      </c>
-      <c r="D9" t="s" s="0">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" t="s" s="0">
-        <v>293</v>
-      </c>
-      <c r="C10" t="s" s="0">
-        <v>287</v>
-      </c>
-      <c r="D10" t="s" s="0">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" t="s" s="0">
-        <v>294</v>
-      </c>
-      <c r="C11" t="s" s="0">
-        <v>288</v>
-      </c>
-      <c r="D11" t="s" s="0">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" t="s" s="0">
-        <v>295</v>
-      </c>
-      <c r="C12" t="s" s="0">
-        <v>289</v>
-      </c>
-      <c r="D12" t="s" s="0">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" t="s" s="0">
-        <v>296</v>
-      </c>
-      <c r="C13" t="s" s="0">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" t="s" s="0">
-        <v>308</v>
-      </c>
-      <c r="C14" t="s" s="0">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" t="s" s="0">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" t="s" s="0">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" t="s" s="0">
-        <v>311</v>
-      </c>
-    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35"/>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35"/>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35"/>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35"/>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H201"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="20.08984375"/>
+    <col min="2" max="2" customWidth="true" width="17.54296875"/>
+    <col min="3" max="3" customWidth="true" width="17.36328125"/>
+    <col min="4" max="5" customWidth="true" width="17.26953125"/>
+    <col min="6" max="6" customWidth="true" width="17.1796875"/>
+    <col min="7" max="7" customWidth="true" width="15.36328125"/>
+    <col min="8" max="8" customWidth="true" width="17.1796875"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" s="169" t="s">
+        <v>296</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>297</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>299</v>
+      </c>
+      <c r="E1" t="s" s="0">
+        <v>300</v>
+      </c>
+      <c r="F1" t="s" s="0">
+        <v>301</v>
+      </c>
+      <c r="G1" t="s" s="0">
+        <v>302</v>
+      </c>
+      <c r="H1" t="s" s="0">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="170" t="s">
+        <v>473</v>
+      </c>
+      <c r="B2" s="170" t="s">
+        <v>624</v>
+      </c>
+      <c r="C2" s="171" t="s">
+        <v>304</v>
+      </c>
+      <c r="D2" s="173" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="170" t="s">
+        <v>474</v>
+      </c>
+      <c r="B3" s="170" t="s">
+        <v>625</v>
+      </c>
+      <c r="C3" s="181" t="s">
+        <v>305</v>
+      </c>
+      <c r="D3" s="173" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="170" t="s">
+        <v>475</v>
+      </c>
+      <c r="B4" s="170" t="s">
+        <v>626</v>
+      </c>
+      <c r="C4" s="172" t="s">
+        <v>306</v>
+      </c>
+      <c r="D4" s="173" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="170" t="s">
+        <v>476</v>
+      </c>
+      <c r="B5" s="170" t="s">
+        <v>627</v>
+      </c>
+      <c r="C5" s="172" t="s">
+        <v>307</v>
+      </c>
+      <c r="D5" s="173" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="170" t="s">
+        <v>477</v>
+      </c>
+      <c r="B6" s="170" t="s">
+        <v>628</v>
+      </c>
+      <c r="C6" s="172" t="s">
+        <v>308</v>
+      </c>
+      <c r="D6" s="173" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="170" t="s">
+        <v>478</v>
+      </c>
+      <c r="B7" s="170" t="s">
+        <v>629</v>
+      </c>
+      <c r="C7" s="172" t="s">
+        <v>309</v>
+      </c>
+      <c r="D7" s="173" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" s="170" t="s">
+        <v>479</v>
+      </c>
+      <c r="B8" s="170" t="s">
+        <v>630</v>
+      </c>
+      <c r="C8" s="172" t="s">
+        <v>310</v>
+      </c>
+      <c r="D8" s="173" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" s="170" t="s">
+        <v>480</v>
+      </c>
+      <c r="B9" s="170" t="s">
+        <v>631</v>
+      </c>
+      <c r="C9" s="172" t="s">
+        <v>311</v>
+      </c>
+      <c r="D9" s="173" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" s="170" t="s">
+        <v>481</v>
+      </c>
+      <c r="B10" s="170" t="s">
+        <v>632</v>
+      </c>
+      <c r="C10" s="172" t="s">
+        <v>312</v>
+      </c>
+      <c r="D10" s="173" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" s="170" t="s">
+        <v>482</v>
+      </c>
+      <c r="B11" s="170" t="s">
+        <v>633</v>
+      </c>
+      <c r="C11" s="172" t="s">
+        <v>313</v>
+      </c>
+      <c r="D11" s="173" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" s="170" t="s">
+        <v>483</v>
+      </c>
+      <c r="B12" s="170" t="s">
+        <v>634</v>
+      </c>
+      <c r="C12" s="172" t="s">
+        <v>314</v>
+      </c>
+      <c r="D12" s="173" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" s="170" t="s">
+        <v>484</v>
+      </c>
+      <c r="B13" s="170" t="s">
+        <v>635</v>
+      </c>
+      <c r="C13" s="172" t="s">
+        <v>315</v>
+      </c>
+      <c r="D13" s="173" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" s="170" t="s">
+        <v>485</v>
+      </c>
+      <c r="B14" s="170" t="s">
+        <v>636</v>
+      </c>
+      <c r="C14" s="172" t="s">
+        <v>316</v>
+      </c>
+      <c r="D14" s="173" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" s="170" t="s">
+        <v>486</v>
+      </c>
+      <c r="B15" s="170" t="s">
+        <v>637</v>
+      </c>
+      <c r="C15" s="172" t="s">
+        <v>317</v>
+      </c>
+      <c r="D15" s="173" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" s="170" t="s">
+        <v>487</v>
+      </c>
+      <c r="B16" s="170" t="s">
+        <v>638</v>
+      </c>
+      <c r="C16" s="172" t="s">
+        <v>318</v>
+      </c>
+      <c r="D16" s="173" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="170" t="s">
+        <v>488</v>
+      </c>
+      <c r="B17" s="170" t="s">
+        <v>639</v>
+      </c>
+      <c r="C17" s="172" t="s">
+        <v>319</v>
+      </c>
+      <c r="D17" s="173" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="170" t="s">
+        <v>489</v>
+      </c>
+      <c r="B18" s="170" t="s">
+        <v>640</v>
+      </c>
+      <c r="C18" s="172" t="s">
+        <v>320</v>
+      </c>
+      <c r="D18" s="173" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="170" t="s">
+        <v>490</v>
+      </c>
+      <c r="B19" s="170" t="s">
+        <v>641</v>
+      </c>
+      <c r="C19" s="172" t="s">
+        <v>321</v>
+      </c>
+      <c r="D19" s="173" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="170" t="s">
+        <v>491</v>
+      </c>
+      <c r="B20" s="170" t="s">
+        <v>642</v>
+      </c>
+      <c r="C20" s="172" t="s">
+        <v>322</v>
+      </c>
+      <c r="D20" s="173" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="170" t="s">
+        <v>492</v>
+      </c>
+      <c r="B21" s="170" t="s">
+        <v>643</v>
+      </c>
+      <c r="C21" s="172" t="s">
+        <v>323</v>
+      </c>
+      <c r="D21" s="173" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" s="170" t="s">
+        <v>493</v>
+      </c>
+      <c r="B22" s="170" t="s">
+        <v>644</v>
+      </c>
+      <c r="C22" s="172" t="s">
+        <v>324</v>
+      </c>
+      <c r="D22" s="173" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" s="170" t="s">
+        <v>494</v>
+      </c>
+      <c r="B23" s="170" t="s">
+        <v>645</v>
+      </c>
+      <c r="C23" s="172" t="s">
+        <v>325</v>
+      </c>
+      <c r="D23" s="173" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" s="170" t="s">
+        <v>495</v>
+      </c>
+      <c r="B24" s="170" t="s">
+        <v>646</v>
+      </c>
+      <c r="C24" s="172" t="s">
+        <v>326</v>
+      </c>
+      <c r="D24" s="173" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" s="170" t="s">
+        <v>496</v>
+      </c>
+      <c r="B25" s="170" t="s">
+        <v>647</v>
+      </c>
+      <c r="C25" s="172" t="s">
+        <v>327</v>
+      </c>
+      <c r="D25" s="173" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" s="170" t="s">
+        <v>497</v>
+      </c>
+      <c r="B26" s="170" t="s">
+        <v>648</v>
+      </c>
+      <c r="C26" s="172" t="s">
+        <v>328</v>
+      </c>
+      <c r="D26" s="173" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" s="170" t="s">
+        <v>498</v>
+      </c>
+      <c r="B27" s="170" t="s">
+        <v>649</v>
+      </c>
+      <c r="C27" s="172" t="s">
+        <v>329</v>
+      </c>
+      <c r="D27" s="173" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" s="170" t="s">
+        <v>499</v>
+      </c>
+      <c r="B28" s="170" t="s">
+        <v>650</v>
+      </c>
+      <c r="C28" s="172" t="s">
+        <v>330</v>
+      </c>
+      <c r="D28" s="173" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" s="170" t="s">
+        <v>500</v>
+      </c>
+      <c r="B29" s="170" t="s">
+        <v>651</v>
+      </c>
+      <c r="C29" s="172" t="s">
+        <v>331</v>
+      </c>
+      <c r="D29" s="173" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" s="170" t="s">
+        <v>501</v>
+      </c>
+      <c r="B30" s="170" t="s">
+        <v>652</v>
+      </c>
+      <c r="C30" s="172" t="s">
+        <v>332</v>
+      </c>
+      <c r="D30" s="173" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" s="170" t="s">
+        <v>502</v>
+      </c>
+      <c r="B31" s="170" t="s">
+        <v>653</v>
+      </c>
+      <c r="C31" s="172" t="s">
+        <v>333</v>
+      </c>
+      <c r="D31" s="173" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" s="170" t="s">
+        <v>503</v>
+      </c>
+      <c r="B32" s="170" t="s">
+        <v>654</v>
+      </c>
+      <c r="C32" s="172" t="s">
+        <v>334</v>
+      </c>
+      <c r="D32" s="173" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" s="170" t="s">
+        <v>504</v>
+      </c>
+      <c r="B33" s="170" t="s">
+        <v>655</v>
+      </c>
+      <c r="C33" s="172" t="s">
+        <v>335</v>
+      </c>
+      <c r="D33" s="173" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" s="170" t="s">
+        <v>505</v>
+      </c>
+      <c r="B34" s="170" t="s">
+        <v>656</v>
+      </c>
+      <c r="C34" s="172" t="s">
+        <v>336</v>
+      </c>
+      <c r="D34" s="173" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35" s="170" t="s">
+        <v>506</v>
+      </c>
+      <c r="B35" s="170" t="s">
+        <v>657</v>
+      </c>
+      <c r="C35" s="172" t="s">
+        <v>337</v>
+      </c>
+      <c r="D35" s="173" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" s="170" t="s">
+        <v>507</v>
+      </c>
+      <c r="B36" s="170" t="s">
+        <v>658</v>
+      </c>
+      <c r="C36" s="172" t="s">
+        <v>338</v>
+      </c>
+      <c r="D36" s="173" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37" s="170" t="s">
+        <v>508</v>
+      </c>
+      <c r="B37" s="170" t="s">
+        <v>659</v>
+      </c>
+      <c r="C37" s="172" t="s">
+        <v>339</v>
+      </c>
+      <c r="D37" s="173" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38" s="170" t="s">
+        <v>509</v>
+      </c>
+      <c r="B38" s="170" t="s">
+        <v>660</v>
+      </c>
+      <c r="C38" s="172" t="s">
+        <v>340</v>
+      </c>
+      <c r="D38" s="173" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39" s="170" t="s">
+        <v>510</v>
+      </c>
+      <c r="B39" s="170" t="s">
+        <v>661</v>
+      </c>
+      <c r="C39" s="172" t="s">
+        <v>341</v>
+      </c>
+      <c r="D39" s="173" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40" s="170" t="s">
+        <v>511</v>
+      </c>
+      <c r="B40" s="170" t="s">
+        <v>662</v>
+      </c>
+      <c r="C40" s="172" t="s">
+        <v>342</v>
+      </c>
+      <c r="D40" s="173" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41" s="170" t="s">
+        <v>512</v>
+      </c>
+      <c r="B41" s="170" t="s">
+        <v>663</v>
+      </c>
+      <c r="C41" s="172" t="s">
+        <v>343</v>
+      </c>
+      <c r="D41" s="173" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A42" s="170" t="s">
+        <v>513</v>
+      </c>
+      <c r="B42" s="170" t="s">
+        <v>664</v>
+      </c>
+      <c r="C42" s="172" t="s">
+        <v>344</v>
+      </c>
+      <c r="D42" s="173" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43" s="170" t="s">
+        <v>514</v>
+      </c>
+      <c r="B43" s="170" t="s">
+        <v>665</v>
+      </c>
+      <c r="C43" s="172" t="s">
+        <v>345</v>
+      </c>
+      <c r="D43" s="173" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A44" s="170" t="s">
+        <v>515</v>
+      </c>
+      <c r="B44" s="170" t="s">
+        <v>666</v>
+      </c>
+      <c r="C44" s="172" t="s">
+        <v>346</v>
+      </c>
+      <c r="D44" s="173" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A45" s="170" t="s">
+        <v>516</v>
+      </c>
+      <c r="B45" s="170" t="s">
+        <v>667</v>
+      </c>
+      <c r="C45" s="172" t="s">
+        <v>347</v>
+      </c>
+      <c r="D45" s="173" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A46" s="170" t="s">
+        <v>517</v>
+      </c>
+      <c r="B46" s="170" t="s">
+        <v>668</v>
+      </c>
+      <c r="C46" s="172" t="s">
+        <v>348</v>
+      </c>
+      <c r="D46" s="173" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A47" s="170" t="s">
+        <v>518</v>
+      </c>
+      <c r="B47" s="170" t="s">
+        <v>669</v>
+      </c>
+      <c r="C47" s="172" t="s">
+        <v>349</v>
+      </c>
+      <c r="D47" s="173" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A48" s="170" t="s">
+        <v>519</v>
+      </c>
+      <c r="B48" s="170" t="s">
+        <v>670</v>
+      </c>
+      <c r="C48" s="172" t="s">
+        <v>350</v>
+      </c>
+      <c r="D48" s="173" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A49" s="170" t="s">
+        <v>520</v>
+      </c>
+      <c r="B49" s="170" t="s">
+        <v>671</v>
+      </c>
+      <c r="C49" s="172" t="s">
+        <v>351</v>
+      </c>
+      <c r="D49" s="173" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A50" s="170" t="s">
+        <v>521</v>
+      </c>
+      <c r="B50" s="170" t="s">
+        <v>672</v>
+      </c>
+      <c r="C50" s="172" t="s">
+        <v>352</v>
+      </c>
+      <c r="D50" s="173" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A51" s="170" t="s">
+        <v>522</v>
+      </c>
+      <c r="B51" s="170" t="s">
+        <v>673</v>
+      </c>
+      <c r="C51" s="172" t="s">
+        <v>353</v>
+      </c>
+      <c r="D51" s="173" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A52" s="170" t="s">
+        <v>523</v>
+      </c>
+      <c r="B52" s="170" t="s">
+        <v>674</v>
+      </c>
+      <c r="C52" s="172" t="s">
+        <v>354</v>
+      </c>
+      <c r="D52" s="173" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A53" s="170" t="s">
+        <v>524</v>
+      </c>
+      <c r="B53" s="170" t="s">
+        <v>675</v>
+      </c>
+      <c r="C53" s="172" t="s">
+        <v>355</v>
+      </c>
+      <c r="D53" s="173" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A54" s="170" t="s">
+        <v>525</v>
+      </c>
+      <c r="B54" s="170" t="s">
+        <v>676</v>
+      </c>
+      <c r="C54" s="172" t="s">
+        <v>356</v>
+      </c>
+      <c r="D54" s="173" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A55" s="170" t="s">
+        <v>526</v>
+      </c>
+      <c r="B55" s="170" t="s">
+        <v>677</v>
+      </c>
+      <c r="C55" s="172" t="s">
+        <v>357</v>
+      </c>
+      <c r="D55" s="173" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A56" s="170" t="s">
+        <v>527</v>
+      </c>
+      <c r="B56" s="170" t="s">
+        <v>678</v>
+      </c>
+      <c r="C56" s="172" t="s">
+        <v>358</v>
+      </c>
+      <c r="D56" s="173" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A57" s="170" t="s">
+        <v>528</v>
+      </c>
+      <c r="B57" s="170" t="s">
+        <v>679</v>
+      </c>
+      <c r="C57" s="172" t="s">
+        <v>359</v>
+      </c>
+      <c r="D57" s="173" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A58" s="170" t="s">
+        <v>529</v>
+      </c>
+      <c r="B58" s="170" t="s">
+        <v>680</v>
+      </c>
+      <c r="C58" s="172" t="s">
+        <v>360</v>
+      </c>
+      <c r="D58" s="173" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A59" s="170" t="s">
+        <v>530</v>
+      </c>
+      <c r="B59" s="170" t="s">
+        <v>681</v>
+      </c>
+      <c r="C59" s="172" t="s">
+        <v>361</v>
+      </c>
+      <c r="D59" s="173" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A60" s="170" t="s">
+        <v>531</v>
+      </c>
+      <c r="B60" s="170" t="s">
+        <v>682</v>
+      </c>
+      <c r="C60" s="172" t="s">
+        <v>362</v>
+      </c>
+      <c r="D60" s="173" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A61" s="170" t="s">
+        <v>532</v>
+      </c>
+      <c r="B61" s="170" t="s">
+        <v>683</v>
+      </c>
+      <c r="C61" s="172" t="s">
+        <v>363</v>
+      </c>
+      <c r="D61" s="173" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A62" s="170" t="s">
+        <v>533</v>
+      </c>
+      <c r="B62" s="170" t="s">
+        <v>684</v>
+      </c>
+      <c r="C62" s="172" t="s">
+        <v>364</v>
+      </c>
+      <c r="D62" s="173" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A63" s="170" t="s">
+        <v>534</v>
+      </c>
+      <c r="B63" s="170" t="s">
+        <v>685</v>
+      </c>
+      <c r="C63" s="172" t="s">
+        <v>365</v>
+      </c>
+      <c r="D63" s="173" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A64" s="170" t="s">
+        <v>535</v>
+      </c>
+      <c r="B64" s="170" t="s">
+        <v>686</v>
+      </c>
+      <c r="C64" s="172" t="s">
+        <v>366</v>
+      </c>
+      <c r="D64" s="173" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A65" s="170" t="s">
+        <v>536</v>
+      </c>
+      <c r="B65" s="170" t="s">
+        <v>687</v>
+      </c>
+      <c r="C65" s="172" t="s">
+        <v>367</v>
+      </c>
+      <c r="D65" s="173" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A66" s="170" t="s">
+        <v>537</v>
+      </c>
+      <c r="B66" s="170" t="s">
+        <v>688</v>
+      </c>
+      <c r="C66" s="172" t="s">
+        <v>368</v>
+      </c>
+      <c r="D66" s="173" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A67" s="170" t="s">
+        <v>538</v>
+      </c>
+      <c r="B67" s="170" t="s">
+        <v>689</v>
+      </c>
+      <c r="C67" s="172" t="s">
+        <v>369</v>
+      </c>
+      <c r="D67" s="173" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A68" s="170" t="s">
+        <v>539</v>
+      </c>
+      <c r="B68" s="170" t="s">
+        <v>690</v>
+      </c>
+      <c r="C68" s="172" t="s">
+        <v>370</v>
+      </c>
+      <c r="D68" s="173" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A69" s="170" t="s">
+        <v>540</v>
+      </c>
+      <c r="B69" s="170" t="s">
+        <v>691</v>
+      </c>
+      <c r="C69" s="172" t="s">
+        <v>371</v>
+      </c>
+      <c r="D69" s="173" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A70" s="170" t="s">
+        <v>541</v>
+      </c>
+      <c r="B70" s="170" t="s">
+        <v>692</v>
+      </c>
+      <c r="C70" s="172" t="s">
+        <v>372</v>
+      </c>
+      <c r="D70" s="173" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A71" s="170" t="s">
+        <v>542</v>
+      </c>
+      <c r="B71" s="170" t="s">
+        <v>693</v>
+      </c>
+      <c r="C71" s="172" t="s">
+        <v>373</v>
+      </c>
+      <c r="D71" s="173" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A72" s="170" t="s">
+        <v>543</v>
+      </c>
+      <c r="B72" s="170" t="s">
+        <v>694</v>
+      </c>
+      <c r="C72" s="172" t="s">
+        <v>374</v>
+      </c>
+      <c r="D72" s="173" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A73" s="170" t="s">
+        <v>544</v>
+      </c>
+      <c r="B73" s="170" t="s">
+        <v>695</v>
+      </c>
+      <c r="C73" s="172" t="s">
+        <v>375</v>
+      </c>
+      <c r="D73" s="173" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A74" s="170" t="s">
+        <v>545</v>
+      </c>
+      <c r="B74" s="170" t="s">
+        <v>696</v>
+      </c>
+      <c r="C74" s="172" t="s">
+        <v>376</v>
+      </c>
+      <c r="D74" s="173" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A75" s="170" t="s">
+        <v>546</v>
+      </c>
+      <c r="B75" s="170" t="s">
+        <v>697</v>
+      </c>
+      <c r="C75" s="172" t="s">
+        <v>377</v>
+      </c>
+      <c r="D75" s="173" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A76" s="170" t="s">
+        <v>547</v>
+      </c>
+      <c r="B76" s="170" t="s">
+        <v>698</v>
+      </c>
+      <c r="C76" s="172" t="s">
+        <v>378</v>
+      </c>
+      <c r="D76" s="173" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A77" s="170" t="s">
+        <v>548</v>
+      </c>
+      <c r="B77" s="170" t="s">
+        <v>699</v>
+      </c>
+      <c r="C77" s="172" t="s">
+        <v>379</v>
+      </c>
+      <c r="D77" s="173" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A78" s="170" t="s">
+        <v>549</v>
+      </c>
+      <c r="B78" s="170" t="s">
+        <v>700</v>
+      </c>
+      <c r="C78" s="172" t="s">
+        <v>380</v>
+      </c>
+      <c r="D78" s="173" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A79" s="170" t="s">
+        <v>550</v>
+      </c>
+      <c r="B79" s="170" t="s">
+        <v>701</v>
+      </c>
+      <c r="C79" s="172" t="s">
+        <v>381</v>
+      </c>
+      <c r="D79" s="173" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A80" s="170" t="s">
+        <v>551</v>
+      </c>
+      <c r="B80" s="170" t="s">
+        <v>702</v>
+      </c>
+      <c r="C80" s="172" t="s">
+        <v>382</v>
+      </c>
+      <c r="D80" s="173" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A81" s="170" t="s">
+        <v>552</v>
+      </c>
+      <c r="B81" s="170" t="s">
+        <v>703</v>
+      </c>
+      <c r="C81" s="172" t="s">
+        <v>383</v>
+      </c>
+      <c r="D81" s="173" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A82" s="170" t="s">
+        <v>553</v>
+      </c>
+      <c r="B82" s="170" t="s">
+        <v>704</v>
+      </c>
+      <c r="C82" s="172" t="s">
+        <v>384</v>
+      </c>
+      <c r="D82" s="173" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A83" s="170" t="s">
+        <v>554</v>
+      </c>
+      <c r="B83" s="170" t="s">
+        <v>705</v>
+      </c>
+      <c r="C83" s="172" t="s">
+        <v>385</v>
+      </c>
+      <c r="D83" s="173" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A84" s="170" t="s">
+        <v>555</v>
+      </c>
+      <c r="B84" s="170" t="s">
+        <v>706</v>
+      </c>
+      <c r="C84" s="172" t="s">
+        <v>386</v>
+      </c>
+      <c r="D84" s="173" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A85" s="170" t="s">
+        <v>556</v>
+      </c>
+      <c r="B85" s="170" t="s">
+        <v>707</v>
+      </c>
+      <c r="C85" s="172" t="s">
+        <v>387</v>
+      </c>
+      <c r="D85" s="173" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A86" s="170" t="s">
+        <v>557</v>
+      </c>
+      <c r="B86" s="170" t="s">
+        <v>708</v>
+      </c>
+      <c r="C86" s="172" t="s">
+        <v>388</v>
+      </c>
+      <c r="D86" s="173" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A87" s="170" t="s">
+        <v>558</v>
+      </c>
+      <c r="B87" s="170" t="s">
+        <v>709</v>
+      </c>
+      <c r="C87" s="172" t="s">
+        <v>389</v>
+      </c>
+      <c r="D87" s="173" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A88" s="170" t="s">
+        <v>559</v>
+      </c>
+      <c r="B88" s="170" t="s">
+        <v>710</v>
+      </c>
+      <c r="C88" s="172" t="s">
+        <v>390</v>
+      </c>
+      <c r="D88" s="173" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A89" s="170" t="s">
+        <v>560</v>
+      </c>
+      <c r="B89" s="170" t="s">
+        <v>711</v>
+      </c>
+      <c r="C89" s="172" t="s">
+        <v>391</v>
+      </c>
+      <c r="D89" s="173" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A90" s="170" t="s">
+        <v>561</v>
+      </c>
+      <c r="B90" s="170" t="s">
+        <v>712</v>
+      </c>
+      <c r="C90" s="172" t="s">
+        <v>392</v>
+      </c>
+      <c r="D90" s="173" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A91" s="170" t="s">
+        <v>562</v>
+      </c>
+      <c r="B91" s="170" t="s">
+        <v>713</v>
+      </c>
+      <c r="C91" s="172" t="s">
+        <v>393</v>
+      </c>
+      <c r="D91" s="173" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A92" s="170" t="s">
+        <v>563</v>
+      </c>
+      <c r="B92" s="170" t="s">
+        <v>714</v>
+      </c>
+      <c r="C92" s="172" t="s">
+        <v>394</v>
+      </c>
+      <c r="D92" s="173" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A93" s="170" t="s">
+        <v>564</v>
+      </c>
+      <c r="B93" s="170" t="s">
+        <v>715</v>
+      </c>
+      <c r="C93" s="172" t="s">
+        <v>395</v>
+      </c>
+      <c r="D93" s="173" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A94" s="170" t="s">
+        <v>565</v>
+      </c>
+      <c r="B94" s="170" t="s">
+        <v>716</v>
+      </c>
+      <c r="C94" s="172" t="s">
+        <v>396</v>
+      </c>
+      <c r="D94" s="173" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A95" s="170" t="s">
+        <v>566</v>
+      </c>
+      <c r="B95" s="170" t="s">
+        <v>717</v>
+      </c>
+      <c r="C95" s="172" t="s">
+        <v>397</v>
+      </c>
+      <c r="D95" s="173" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A96" s="170" t="s">
+        <v>567</v>
+      </c>
+      <c r="B96" s="170" t="s">
+        <v>718</v>
+      </c>
+      <c r="C96" s="172" t="s">
+        <v>398</v>
+      </c>
+      <c r="D96" s="173" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A97" s="170" t="s">
+        <v>568</v>
+      </c>
+      <c r="B97" s="170" t="s">
+        <v>719</v>
+      </c>
+      <c r="C97" s="172" t="s">
+        <v>399</v>
+      </c>
+      <c r="D97" s="173" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A98" s="170" t="s">
+        <v>569</v>
+      </c>
+      <c r="B98" s="170" t="s">
+        <v>720</v>
+      </c>
+      <c r="C98" s="172" t="s">
+        <v>400</v>
+      </c>
+      <c r="D98" s="173" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A99" s="170" t="s">
+        <v>570</v>
+      </c>
+      <c r="B99" s="170" t="s">
+        <v>721</v>
+      </c>
+      <c r="C99" s="172" t="s">
+        <v>401</v>
+      </c>
+      <c r="D99" s="173" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A100" s="170" t="s">
+        <v>571</v>
+      </c>
+      <c r="B100" s="170" t="s">
+        <v>722</v>
+      </c>
+      <c r="C100" s="172" t="s">
+        <v>402</v>
+      </c>
+      <c r="D100" s="173" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A101" s="170" t="s">
+        <v>572</v>
+      </c>
+      <c r="B101" s="170" t="s">
+        <v>723</v>
+      </c>
+      <c r="C101" s="172" t="s">
+        <v>403</v>
+      </c>
+      <c r="D101" s="173" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A102" s="170" t="s">
+        <v>573</v>
+      </c>
+      <c r="B102" s="170" t="s">
+        <v>724</v>
+      </c>
+      <c r="C102" s="172" t="s">
+        <v>404</v>
+      </c>
+      <c r="D102" s="173" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A103" s="170" t="s">
+        <v>574</v>
+      </c>
+      <c r="B103" s="170" t="s">
+        <v>725</v>
+      </c>
+      <c r="C103" s="172" t="s">
+        <v>405</v>
+      </c>
+      <c r="D103" s="173" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A104" s="170" t="s">
+        <v>575</v>
+      </c>
+      <c r="B104" s="170" t="s">
+        <v>726</v>
+      </c>
+      <c r="C104" s="172" t="s">
+        <v>406</v>
+      </c>
+      <c r="D104" s="173" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A105" s="170" t="s">
+        <v>576</v>
+      </c>
+      <c r="B105" s="170" t="s">
+        <v>727</v>
+      </c>
+      <c r="C105" s="172" t="s">
+        <v>407</v>
+      </c>
+      <c r="D105" s="173" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A106" s="170" t="s">
+        <v>577</v>
+      </c>
+      <c r="B106" s="170" t="s">
+        <v>728</v>
+      </c>
+      <c r="C106" s="172" t="s">
+        <v>408</v>
+      </c>
+      <c r="D106" s="173" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A107" s="170" t="s">
+        <v>578</v>
+      </c>
+      <c r="B107" s="170" t="s">
+        <v>729</v>
+      </c>
+      <c r="C107" s="172" t="s">
+        <v>409</v>
+      </c>
+      <c r="D107" s="173" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A108" s="170" t="s">
+        <v>579</v>
+      </c>
+      <c r="B108" s="170" t="s">
+        <v>730</v>
+      </c>
+      <c r="C108" s="172" t="s">
+        <v>410</v>
+      </c>
+      <c r="D108" s="173" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A109" s="170" t="s">
+        <v>580</v>
+      </c>
+      <c r="B109" s="170" t="s">
+        <v>731</v>
+      </c>
+      <c r="C109" s="172" t="s">
+        <v>411</v>
+      </c>
+      <c r="D109" s="173" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A110" s="170" t="s">
+        <v>581</v>
+      </c>
+      <c r="B110" s="170" t="s">
+        <v>732</v>
+      </c>
+      <c r="C110" s="172" t="s">
+        <v>412</v>
+      </c>
+      <c r="D110" s="173" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A111" s="170" t="s">
+        <v>582</v>
+      </c>
+      <c r="B111" s="170" t="s">
+        <v>733</v>
+      </c>
+      <c r="C111" s="172" t="s">
+        <v>413</v>
+      </c>
+      <c r="D111" s="173" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A112" s="170" t="s">
+        <v>583</v>
+      </c>
+      <c r="B112" s="170" t="s">
+        <v>734</v>
+      </c>
+      <c r="C112" s="172" t="s">
+        <v>414</v>
+      </c>
+      <c r="D112" s="173" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A113" s="170" t="s">
+        <v>584</v>
+      </c>
+      <c r="B113" s="170" t="s">
+        <v>735</v>
+      </c>
+      <c r="C113" s="172" t="s">
+        <v>415</v>
+      </c>
+      <c r="D113" s="173" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A114" s="170" t="s">
+        <v>585</v>
+      </c>
+      <c r="B114" s="170" t="s">
+        <v>736</v>
+      </c>
+      <c r="C114" s="172" t="s">
+        <v>416</v>
+      </c>
+      <c r="D114" s="173" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A115" s="170" t="s">
+        <v>586</v>
+      </c>
+      <c r="B115" s="170" t="s">
+        <v>737</v>
+      </c>
+      <c r="C115" s="172" t="s">
+        <v>417</v>
+      </c>
+      <c r="D115" s="173" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A116" s="170" t="s">
+        <v>587</v>
+      </c>
+      <c r="B116" s="170" t="s">
+        <v>738</v>
+      </c>
+      <c r="C116" s="172" t="s">
+        <v>418</v>
+      </c>
+      <c r="D116" s="173" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A117" s="170" t="s">
+        <v>588</v>
+      </c>
+      <c r="B117" s="170" t="s">
+        <v>739</v>
+      </c>
+      <c r="C117" s="172" t="s">
+        <v>419</v>
+      </c>
+      <c r="D117" s="173" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A118" s="170" t="s">
+        <v>589</v>
+      </c>
+      <c r="B118" s="170" t="s">
+        <v>740</v>
+      </c>
+      <c r="C118" s="172" t="s">
+        <v>420</v>
+      </c>
+      <c r="D118" s="173" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A119" s="170" t="s">
+        <v>590</v>
+      </c>
+      <c r="B119" s="170" t="s">
+        <v>741</v>
+      </c>
+      <c r="C119" s="172" t="s">
+        <v>421</v>
+      </c>
+      <c r="D119" s="173" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A120" s="170" t="s">
+        <v>591</v>
+      </c>
+      <c r="B120" s="170" t="s">
+        <v>742</v>
+      </c>
+      <c r="C120" s="172" t="s">
+        <v>422</v>
+      </c>
+      <c r="D120" s="173" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A121" s="170" t="s">
+        <v>592</v>
+      </c>
+      <c r="B121" s="170" t="s">
+        <v>743</v>
+      </c>
+      <c r="C121" s="172" t="s">
+        <v>423</v>
+      </c>
+      <c r="D121" s="173" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A122" s="170" t="s">
+        <v>593</v>
+      </c>
+      <c r="B122" s="170" t="s">
+        <v>744</v>
+      </c>
+      <c r="C122" s="172" t="s">
+        <v>424</v>
+      </c>
+      <c r="D122" s="173" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A123" s="170" t="s">
+        <v>594</v>
+      </c>
+      <c r="B123" s="170" t="s">
+        <v>745</v>
+      </c>
+      <c r="C123" s="172" t="s">
+        <v>425</v>
+      </c>
+      <c r="D123" s="173" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A124" s="170" t="s">
+        <v>595</v>
+      </c>
+      <c r="B124" s="170" t="s">
+        <v>746</v>
+      </c>
+      <c r="C124" s="172" t="s">
+        <v>426</v>
+      </c>
+      <c r="D124" s="173" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A125" s="170" t="s">
+        <v>596</v>
+      </c>
+      <c r="B125" s="170" t="s">
+        <v>747</v>
+      </c>
+      <c r="C125" s="172" t="s">
+        <v>427</v>
+      </c>
+      <c r="D125" s="173" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A126" s="170" t="s">
+        <v>597</v>
+      </c>
+      <c r="B126" s="170" t="s">
+        <v>748</v>
+      </c>
+      <c r="C126" s="172" t="s">
+        <v>428</v>
+      </c>
+      <c r="D126" s="173" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A127" s="170" t="s">
+        <v>598</v>
+      </c>
+      <c r="B127" s="170" t="s">
+        <v>749</v>
+      </c>
+      <c r="C127" s="172" t="s">
+        <v>429</v>
+      </c>
+      <c r="D127" s="173" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A128" s="170" t="s">
+        <v>599</v>
+      </c>
+      <c r="B128" s="170" t="s">
+        <v>750</v>
+      </c>
+      <c r="C128" s="172" t="s">
+        <v>430</v>
+      </c>
+      <c r="D128" s="173" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A129" s="170" t="s">
+        <v>600</v>
+      </c>
+      <c r="B129" s="170" t="s">
+        <v>751</v>
+      </c>
+      <c r="C129" s="172" t="s">
+        <v>431</v>
+      </c>
+      <c r="D129" s="173" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A130" s="170" t="s">
+        <v>601</v>
+      </c>
+      <c r="B130" s="170" t="s">
+        <v>752</v>
+      </c>
+      <c r="C130" s="172" t="s">
+        <v>432</v>
+      </c>
+      <c r="D130" s="173" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A131" s="170" t="s">
+        <v>602</v>
+      </c>
+      <c r="B131" s="170" t="s">
+        <v>753</v>
+      </c>
+      <c r="C131" s="172" t="s">
+        <v>433</v>
+      </c>
+      <c r="D131" s="173" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A132" s="170" t="s">
+        <v>603</v>
+      </c>
+      <c r="B132" s="170" t="s">
+        <v>754</v>
+      </c>
+      <c r="C132" s="172" t="s">
+        <v>434</v>
+      </c>
+      <c r="D132" s="173" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A133" s="170" t="s">
+        <v>604</v>
+      </c>
+      <c r="B133" s="170" t="s">
+        <v>755</v>
+      </c>
+      <c r="C133" s="172" t="s">
+        <v>435</v>
+      </c>
+      <c r="D133" s="173" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A134" s="170" t="s">
+        <v>605</v>
+      </c>
+      <c r="B134" s="170" t="s">
+        <v>756</v>
+      </c>
+      <c r="C134" s="172" t="s">
+        <v>436</v>
+      </c>
+      <c r="D134" s="173" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A135" s="170" t="s">
+        <v>606</v>
+      </c>
+      <c r="B135" s="170" t="s">
+        <v>757</v>
+      </c>
+      <c r="C135" s="172" t="s">
+        <v>437</v>
+      </c>
+      <c r="D135" s="173" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A136" s="170" t="s">
+        <v>607</v>
+      </c>
+      <c r="B136" s="170" t="s">
+        <v>758</v>
+      </c>
+      <c r="C136" s="172" t="s">
+        <v>438</v>
+      </c>
+      <c r="D136" s="173" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A137" s="170" t="s">
+        <v>608</v>
+      </c>
+      <c r="B137" s="170" t="s">
+        <v>759</v>
+      </c>
+      <c r="C137" s="172" t="s">
+        <v>439</v>
+      </c>
+      <c r="D137" s="173" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A138" s="170" t="s">
+        <v>609</v>
+      </c>
+      <c r="B138" s="170" t="s">
+        <v>760</v>
+      </c>
+      <c r="C138" s="172" t="s">
+        <v>440</v>
+      </c>
+      <c r="D138" s="173" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A139" s="170" t="s">
+        <v>610</v>
+      </c>
+      <c r="B139" s="170" t="s">
+        <v>761</v>
+      </c>
+      <c r="C139" s="172" t="s">
+        <v>441</v>
+      </c>
+      <c r="D139" s="173" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A140" s="170" t="s">
+        <v>611</v>
+      </c>
+      <c r="B140" s="170" t="s">
+        <v>762</v>
+      </c>
+      <c r="C140" s="172" t="s">
+        <v>442</v>
+      </c>
+      <c r="D140" s="173" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A141" s="170" t="s">
+        <v>612</v>
+      </c>
+      <c r="B141" s="170" t="s">
+        <v>763</v>
+      </c>
+      <c r="C141" s="172" t="s">
+        <v>443</v>
+      </c>
+      <c r="D141" s="173" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A142" s="170" t="s">
+        <v>613</v>
+      </c>
+      <c r="B142" s="170" t="s">
+        <v>764</v>
+      </c>
+      <c r="C142" s="172" t="s">
+        <v>444</v>
+      </c>
+      <c r="D142" s="173" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A143" s="170" t="s">
+        <v>614</v>
+      </c>
+      <c r="B143" s="170" t="s">
+        <v>765</v>
+      </c>
+      <c r="C143" s="172" t="s">
+        <v>445</v>
+      </c>
+      <c r="D143" s="173" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A144" s="170" t="s">
+        <v>615</v>
+      </c>
+      <c r="B144" s="170" t="s">
+        <v>766</v>
+      </c>
+      <c r="C144" s="172" t="s">
+        <v>446</v>
+      </c>
+      <c r="D144" s="173" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A145" s="170" t="s">
+        <v>616</v>
+      </c>
+      <c r="B145" s="170" t="s">
+        <v>767</v>
+      </c>
+      <c r="C145" s="172" t="s">
+        <v>447</v>
+      </c>
+      <c r="D145" s="173" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A146" s="170" t="s">
+        <v>617</v>
+      </c>
+      <c r="B146" s="170" t="s">
+        <v>768</v>
+      </c>
+      <c r="C146" s="172" t="s">
+        <v>448</v>
+      </c>
+      <c r="D146" s="173" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A147" s="170" t="s">
+        <v>618</v>
+      </c>
+      <c r="B147" s="170" t="s">
+        <v>769</v>
+      </c>
+      <c r="C147" s="172" t="s">
+        <v>449</v>
+      </c>
+      <c r="D147" s="173" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A148" s="170" t="s">
+        <v>619</v>
+      </c>
+      <c r="B148" s="170" t="s">
+        <v>770</v>
+      </c>
+      <c r="C148" s="172" t="s">
+        <v>450</v>
+      </c>
+      <c r="D148" s="173" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A149" s="170" t="s">
+        <v>620</v>
+      </c>
+      <c r="B149" s="170" t="s">
+        <v>771</v>
+      </c>
+      <c r="C149" s="172" t="s">
+        <v>451</v>
+      </c>
+      <c r="D149" s="173" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A150" s="170" t="s">
+        <v>621</v>
+      </c>
+      <c r="B150" s="170" t="s">
+        <v>772</v>
+      </c>
+      <c r="C150" s="172" t="s">
+        <v>452</v>
+      </c>
+      <c r="D150" s="173" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A151" s="170" t="s">
+        <v>622</v>
+      </c>
+      <c r="B151" s="170" t="s">
+        <v>773</v>
+      </c>
+      <c r="C151" s="172" t="s">
+        <v>453</v>
+      </c>
+      <c r="D151" s="173" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A152" s="170" t="s">
+        <v>623</v>
+      </c>
+      <c r="B152" s="170" t="s">
+        <v>774</v>
+      </c>
+      <c r="C152" s="172" t="s">
+        <v>454</v>
+      </c>
+      <c r="D152" s="173" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B153" s="170" t="s">
+        <v>775</v>
+      </c>
+      <c r="C153" s="172" t="s">
+        <v>455</v>
+      </c>
+      <c r="D153" s="173" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B154" s="170" t="s">
+        <v>776</v>
+      </c>
+      <c r="C154" s="172" t="s">
+        <v>456</v>
+      </c>
+      <c r="D154" s="173" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B155" s="170" t="s">
+        <v>777</v>
+      </c>
+      <c r="C155" s="172" t="s">
+        <v>457</v>
+      </c>
+      <c r="D155" s="173" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B156" s="170" t="s">
+        <v>778</v>
+      </c>
+      <c r="C156" s="172" t="s">
+        <v>458</v>
+      </c>
+      <c r="D156" s="173" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B157" s="170" t="s">
+        <v>779</v>
+      </c>
+      <c r="C157" s="172" t="s">
+        <v>459</v>
+      </c>
+      <c r="D157" s="173" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B158" s="170" t="s">
+        <v>780</v>
+      </c>
+      <c r="C158" s="172" t="s">
+        <v>460</v>
+      </c>
+      <c r="D158" s="173" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C159" s="172" t="s">
+        <v>461</v>
+      </c>
+      <c r="D159" s="173" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C160" s="172" t="s">
+        <v>462</v>
+      </c>
+      <c r="D160" s="173" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C161" s="172" t="s">
+        <v>463</v>
+      </c>
+      <c r="D161" s="173" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C162" s="172" t="s">
+        <v>464</v>
+      </c>
+      <c r="D162" s="173" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C163" s="172" t="s">
+        <v>465</v>
+      </c>
+      <c r="D163" s="173" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C164" s="172" t="s">
+        <v>466</v>
+      </c>
+      <c r="D164" s="173" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C165" s="172" t="s">
+        <v>467</v>
+      </c>
+      <c r="D165" s="173" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C166" s="172" t="s">
+        <v>468</v>
+      </c>
+      <c r="D166" s="173" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C167" s="172" t="s">
+        <v>469</v>
+      </c>
+      <c r="D167" s="173" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C168" s="172" t="s">
+        <v>470</v>
+      </c>
+      <c r="D168" s="173" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C169" s="172" t="s">
+        <v>471</v>
+      </c>
+      <c r="D169" s="173" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C170" s="172" t="s">
+        <v>472</v>
+      </c>
+      <c r="D170" s="173" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D171" s="173" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D172" s="173" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D173" s="173" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D174" s="173" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D175" s="173" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D176" s="173" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D177" s="173" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D178" s="173" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D179" s="173" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D180" s="173" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D181" s="173" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D182" s="173" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D183" s="173" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D184" s="173" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D185" s="173" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D186" s="173" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D187" s="173" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D188" s="173" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D189" s="173" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D190" s="173" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D191" s="173" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D192" s="173" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="193" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D193" s="173" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="194" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D194" s="173" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="195" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D195" s="173" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="196" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D196" s="173" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="197" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D197" s="173" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="198" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D198" s="173" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="199" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D199" s="173" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="200" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D200" s="173" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="201" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D201" s="173" t="s">
+        <v>980</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>